--- a/model_lca/KBOB_database.xlsx
+++ b/model_lca/KBOB_database.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3006,37 +3006,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5.81640625" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="29">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -3150,7 +3150,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22" ht="28.5" thickBot="1">
+    <row r="4" spans="1:22" ht="29.25" thickBot="1">
       <c r="A4" s="6">
         <v>1E-3</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="28.5" thickBot="1">
+    <row r="5" spans="1:22" ht="29.25" thickBot="1">
       <c r="A5" s="8">
         <v>2E-3</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="28.5" thickBot="1">
+    <row r="6" spans="1:22" ht="29.25" thickBot="1">
       <c r="A6" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="28.5" thickBot="1">
+    <row r="8" spans="1:22" ht="29.25" thickBot="1">
       <c r="A8" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" ht="28.5" thickBot="1">
+    <row r="9" spans="1:22" ht="29.25" thickBot="1">
       <c r="A9" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:22" ht="28.5" thickBot="1">
+    <row r="10" spans="1:22" ht="29.25" thickBot="1">
       <c r="A10" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:22" ht="28.5" thickBot="1">
+    <row r="11" spans="1:22" ht="29.25" thickBot="1">
       <c r="A11" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" ht="28.5" thickBot="1">
+    <row r="12" spans="1:22" ht="29.25" thickBot="1">
       <c r="A12" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" spans="1:22" ht="28.5" thickBot="1">
+    <row r="13" spans="1:22" ht="29.25" thickBot="1">
       <c r="A13" s="8">
         <v>0.01</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="1:22" ht="28.5" thickBot="1">
+    <row r="14" spans="1:22" ht="29.25" thickBot="1">
       <c r="A14" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -3788,7 +3788,7 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="1:22" ht="28.5" thickBot="1">
+    <row r="15" spans="1:22" ht="29.25" thickBot="1">
       <c r="A15" s="8">
         <v>1.2E-2</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="A16" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:22" ht="28.5" thickBot="1">
+    <row r="17" spans="1:22" ht="29.25" thickBot="1">
       <c r="A17" s="8">
         <v>1.4E-2</v>
       </c>
@@ -3962,7 +3962,7 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="1:22" ht="28.5" thickBot="1">
+    <row r="18" spans="1:22" ht="29.25" thickBot="1">
       <c r="A18" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="1:22" ht="28.5" thickBot="1">
+    <row r="19" spans="1:22" ht="29.25" thickBot="1">
       <c r="A19" s="8">
         <v>1.6E-2</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="20" spans="1:22" ht="28.5" thickBot="1">
+    <row r="20" spans="1:22" ht="43.5" thickBot="1">
       <c r="A20" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:22" ht="28.5" thickBot="1">
+    <row r="21" spans="1:22" ht="43.5" thickBot="1">
       <c r="A21" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1">
+    <row r="22" spans="1:22" ht="29.25" thickBot="1">
       <c r="A22" s="8">
         <v>1.9E-2</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:22" ht="28.5" thickBot="1">
+    <row r="23" spans="1:22" ht="29.25" thickBot="1">
       <c r="A23" s="8">
         <v>0.02</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="15" thickBot="1">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1">
       <c r="A24" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1">
+    <row r="25" spans="1:22" ht="15.75" thickBot="1">
       <c r="A25" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1">
+    <row r="26" spans="1:22" ht="15.75" thickBot="1">
       <c r="A26" s="8">
         <v>2.3E-2</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="1:22" ht="15" thickBot="1">
+    <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="A27" s="8">
         <v>2.4E-2</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
     </row>
-    <row r="28" spans="1:22" ht="15" thickBot="1">
+    <row r="28" spans="1:22" ht="15.75" thickBot="1">
       <c r="A28" s="13">
         <v>1</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
     </row>
-    <row r="29" spans="1:22" ht="15" thickBot="1">
+    <row r="29" spans="1:22" ht="29.25" thickBot="1">
       <c r="A29" s="8">
         <v>1.0009999999999999</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
     </row>
-    <row r="30" spans="1:22" ht="28.5" thickBot="1">
+    <row r="30" spans="1:22" ht="29.25" thickBot="1">
       <c r="A30" s="8">
         <v>1.002</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
     </row>
-    <row r="31" spans="1:22" ht="28.5" thickBot="1">
+    <row r="31" spans="1:22" ht="29.25" thickBot="1">
       <c r="A31" s="8">
         <v>1.0029999999999999</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
     </row>
-    <row r="32" spans="1:22" ht="28.5" thickBot="1">
+    <row r="32" spans="1:22" ht="29.25" thickBot="1">
       <c r="A32" s="8">
         <v>1.004</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
     </row>
-    <row r="33" spans="1:22" ht="28.5" thickBot="1">
+    <row r="33" spans="1:22" ht="29.25" thickBot="1">
       <c r="A33" s="8">
         <v>1.0409999999999999</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
     </row>
-    <row r="34" spans="1:22" ht="28.5" thickBot="1">
+    <row r="34" spans="1:22" ht="29.25" thickBot="1">
       <c r="A34" s="8">
         <v>1.042</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
     </row>
-    <row r="35" spans="1:22" ht="15" thickBot="1">
+    <row r="35" spans="1:22" ht="15.75" thickBot="1">
       <c r="A35" s="8">
         <v>1.0429999999999999</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
     </row>
-    <row r="38" spans="1:22" ht="15" thickBot="1">
+    <row r="38" spans="1:22" ht="15.75" thickBot="1">
       <c r="A38" s="6">
         <v>2.0009999999999999</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
     </row>
-    <row r="39" spans="1:22" ht="15" thickBot="1">
+    <row r="39" spans="1:22" ht="15.75" thickBot="1">
       <c r="A39" s="8">
         <v>2.0019999999999998</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
     </row>
-    <row r="40" spans="1:22" ht="15" thickBot="1">
+    <row r="40" spans="1:22" ht="15.75" thickBot="1">
       <c r="A40" s="8">
         <v>2.0030000000000001</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
     </row>
-    <row r="41" spans="1:22" ht="28.5" thickBot="1">
+    <row r="41" spans="1:22" ht="29.25" thickBot="1">
       <c r="A41" s="8">
         <v>2.004</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
     </row>
-    <row r="42" spans="1:22" ht="28.5" thickBot="1">
+    <row r="42" spans="1:22" ht="29.25" thickBot="1">
       <c r="A42" s="8">
         <v>2.0049999999999999</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
     </row>
-    <row r="43" spans="1:22" ht="15" thickBot="1">
+    <row r="43" spans="1:22" ht="15.75" thickBot="1">
       <c r="A43" s="8">
         <v>2.0059999999999998</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
     </row>
-    <row r="44" spans="1:22" ht="15" thickBot="1">
+    <row r="44" spans="1:22" ht="15.75" thickBot="1">
       <c r="A44" s="8">
         <v>2.0070000000000001</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
     </row>
-    <row r="45" spans="1:22" ht="15" thickBot="1">
+    <row r="45" spans="1:22" ht="15.75" thickBot="1">
       <c r="A45" s="15">
         <v>3</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
     </row>
-    <row r="46" spans="1:22" ht="15" thickBot="1">
+    <row r="46" spans="1:22" ht="15.75" thickBot="1">
       <c r="A46" s="8">
         <v>3.0009999999999999</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
     </row>
-    <row r="47" spans="1:22" ht="15" thickBot="1">
+    <row r="47" spans="1:22" ht="15.75" thickBot="1">
       <c r="A47" s="8">
         <v>3.0019999999999998</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
     </row>
-    <row r="48" spans="1:22" ht="15" thickBot="1">
+    <row r="48" spans="1:22" ht="15.75" thickBot="1">
       <c r="A48" s="8">
         <v>3.0030000000000001</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
     </row>
-    <row r="49" spans="1:22" ht="15" thickBot="1">
+    <row r="49" spans="1:22" ht="15.75" thickBot="1">
       <c r="A49" s="8">
         <v>3.004</v>
       </c>
@@ -5708,7 +5708,7 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
     </row>
-    <row r="50" spans="1:22" ht="15" thickBot="1">
+    <row r="50" spans="1:22" ht="15.75" thickBot="1">
       <c r="A50" s="8">
         <v>3.0049999999999999</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
     </row>
-    <row r="51" spans="1:22" ht="15" thickBot="1">
+    <row r="51" spans="1:22" ht="15.75" thickBot="1">
       <c r="A51" s="8">
         <v>3.0059999999999998</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
     </row>
-    <row r="52" spans="1:22" ht="15" thickBot="1">
+    <row r="52" spans="1:22" ht="15.75" thickBot="1">
       <c r="A52" s="8">
         <v>3.0070000000000001</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
     </row>
-    <row r="53" spans="1:22" ht="15" thickBot="1">
+    <row r="53" spans="1:22" ht="15.75" thickBot="1">
       <c r="A53" s="8">
         <v>3.008</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
     </row>
-    <row r="54" spans="1:22" ht="28.5" thickBot="1">
+    <row r="54" spans="1:22" ht="29.25" thickBot="1">
       <c r="A54" s="8">
         <v>3.016</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
     </row>
-    <row r="55" spans="1:22" ht="15" thickBot="1">
+    <row r="55" spans="1:22" ht="15.75" thickBot="1">
       <c r="A55" s="8">
         <v>3.0089999999999999</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
     </row>
-    <row r="56" spans="1:22" ht="15" thickBot="1">
+    <row r="56" spans="1:22" ht="15.75" thickBot="1">
       <c r="A56" s="8">
         <v>3.01</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
     </row>
-    <row r="57" spans="1:22" ht="15" thickBot="1">
+    <row r="57" spans="1:22" ht="15.75" thickBot="1">
       <c r="A57" s="8">
         <v>3.0110000000000001</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
     </row>
-    <row r="58" spans="1:22" ht="15" thickBot="1">
+    <row r="58" spans="1:22" ht="15.75" thickBot="1">
       <c r="A58" s="8">
         <v>3.012</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
     </row>
-    <row r="59" spans="1:22" ht="15" thickBot="1">
+    <row r="59" spans="1:22" ht="15.75" thickBot="1">
       <c r="A59" s="8">
         <v>3.0129999999999999</v>
       </c>
@@ -6288,7 +6288,7 @@
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
     </row>
-    <row r="60" spans="1:22" ht="15" thickBot="1">
+    <row r="60" spans="1:22" ht="15.75" thickBot="1">
       <c r="A60" s="8">
         <v>3.0139999999999998</v>
       </c>
@@ -6346,7 +6346,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
     </row>
-    <row r="61" spans="1:22" ht="15" thickBot="1">
+    <row r="61" spans="1:22" ht="15.75" thickBot="1">
       <c r="A61" s="8">
         <v>3.02</v>
       </c>
@@ -6404,7 +6404,7 @@
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" spans="1:22" ht="15" thickBot="1">
+    <row r="62" spans="1:22" ht="15.75" thickBot="1">
       <c r="A62" s="8">
         <v>3.0150000000000001</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
     </row>
-    <row r="63" spans="1:22" ht="15" thickBot="1">
+    <row r="63" spans="1:22" ht="15.75" thickBot="1">
       <c r="A63" s="9">
         <v>4</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
     </row>
-    <row r="64" spans="1:22" ht="28.5" thickBot="1">
+    <row r="64" spans="1:22" ht="29.25" thickBot="1">
       <c r="A64" s="8">
         <v>4.008</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
     </row>
-    <row r="65" spans="1:22" ht="28.5" thickBot="1">
+    <row r="65" spans="1:22" ht="29.25" thickBot="1">
       <c r="A65" s="8">
         <v>4.01</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
     </row>
-    <row r="66" spans="1:22" ht="28.5" thickBot="1">
+    <row r="66" spans="1:22" ht="29.25" thickBot="1">
       <c r="A66" s="8">
         <v>4.0019999999999998</v>
       </c>
@@ -6668,7 +6668,7 @@
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
     </row>
-    <row r="67" spans="1:22" ht="15" thickBot="1">
+    <row r="67" spans="1:22" ht="15.75" thickBot="1">
       <c r="A67" s="8">
         <v>4.0170000000000003</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
     </row>
-    <row r="68" spans="1:22" ht="15" thickBot="1">
+    <row r="68" spans="1:22" ht="15.75" thickBot="1">
       <c r="A68" s="8">
         <v>4.0010000000000003</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
     </row>
-    <row r="69" spans="1:22" ht="15" thickBot="1">
+    <row r="69" spans="1:22" ht="15.75" thickBot="1">
       <c r="A69" s="8">
         <v>4.0030000000000001</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
     </row>
-    <row r="70" spans="1:22" ht="15" thickBot="1">
+    <row r="70" spans="1:22" ht="15.75" thickBot="1">
       <c r="A70" s="8">
         <v>4.0129999999999999</v>
       </c>
@@ -6900,7 +6900,7 @@
       <c r="U70" s="10"/>
       <c r="V70" s="10"/>
     </row>
-    <row r="71" spans="1:22" ht="15" thickBot="1">
+    <row r="71" spans="1:22" ht="15.75" thickBot="1">
       <c r="A71" s="8">
         <v>4.0039999999999996</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
     </row>
-    <row r="72" spans="1:22" ht="15" thickBot="1">
+    <row r="72" spans="1:22" ht="15.75" thickBot="1">
       <c r="A72" s="8">
         <v>4.0149999999999997</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="U72" s="10"/>
       <c r="V72" s="10"/>
     </row>
-    <row r="73" spans="1:22" ht="28.5" thickBot="1">
+    <row r="73" spans="1:22" ht="29.25" thickBot="1">
       <c r="A73" s="8">
         <v>4.0110000000000001</v>
       </c>
@@ -7074,7 +7074,7 @@
       <c r="U73" s="10"/>
       <c r="V73" s="10"/>
     </row>
-    <row r="74" spans="1:22" ht="15" thickBot="1">
+    <row r="74" spans="1:22" ht="15.75" thickBot="1">
       <c r="A74" s="8">
         <v>4.0119999999999996</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="U74" s="10"/>
       <c r="V74" s="10"/>
     </row>
-    <row r="75" spans="1:22" ht="15" thickBot="1">
+    <row r="75" spans="1:22" ht="15.75" thickBot="1">
       <c r="A75" s="8">
         <v>4.016</v>
       </c>
@@ -7190,7 +7190,7 @@
       <c r="U75" s="10"/>
       <c r="V75" s="10"/>
     </row>
-    <row r="76" spans="1:22" ht="15" thickBot="1">
+    <row r="76" spans="1:22" ht="15.75" thickBot="1">
       <c r="A76" s="8">
         <v>4.0049999999999999</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="U76" s="10"/>
       <c r="V76" s="10"/>
     </row>
-    <row r="77" spans="1:22" ht="15" thickBot="1">
+    <row r="77" spans="1:22" ht="15.75" thickBot="1">
       <c r="A77" s="8">
         <v>4.0060000000000002</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="U77" s="10"/>
       <c r="V77" s="10"/>
     </row>
-    <row r="78" spans="1:22" ht="15" thickBot="1">
+    <row r="78" spans="1:22" ht="15.75" thickBot="1">
       <c r="A78" s="8">
         <v>4.0069999999999997</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="U78" s="10"/>
       <c r="V78" s="10"/>
     </row>
-    <row r="79" spans="1:22" ht="15" thickBot="1">
+    <row r="79" spans="1:22" ht="15.75" thickBot="1">
       <c r="A79" s="8">
         <v>4.0140000000000002</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="U79" s="10"/>
       <c r="V79" s="10"/>
     </row>
-    <row r="80" spans="1:22" ht="15" thickBot="1">
+    <row r="80" spans="1:22" ht="15.75" thickBot="1">
       <c r="A80" s="8">
         <v>4.0090000000000003</v>
       </c>
@@ -7480,7 +7480,7 @@
       <c r="U80" s="10"/>
       <c r="V80" s="10"/>
     </row>
-    <row r="81" spans="1:22" ht="28.5" thickBot="1">
+    <row r="81" spans="1:22" ht="30.75" thickBot="1">
       <c r="A81" s="9">
         <v>5</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="U81" s="10"/>
       <c r="V81" s="10"/>
     </row>
-    <row r="82" spans="1:22" ht="28.5" thickBot="1">
+    <row r="82" spans="1:22" ht="29.25" thickBot="1">
       <c r="A82" s="8">
         <v>5.008</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
     </row>
-    <row r="83" spans="1:22" ht="28.5" thickBot="1">
+    <row r="83" spans="1:22" ht="29.25" thickBot="1">
       <c r="A83" s="8">
         <v>5.0220000000000002</v>
       </c>
@@ -7628,7 +7628,7 @@
       <c r="U83" s="10"/>
       <c r="V83" s="10"/>
     </row>
-    <row r="84" spans="1:22" ht="28.5" thickBot="1">
+    <row r="84" spans="1:22" ht="43.5" thickBot="1">
       <c r="A84" s="8">
         <v>5.0229999999999997</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
     </row>
-    <row r="85" spans="1:22" ht="15" thickBot="1">
+    <row r="85" spans="1:22" ht="15.75" thickBot="1">
       <c r="A85" s="8">
         <v>5.0250000000000004</v>
       </c>
@@ -7744,7 +7744,7 @@
       <c r="U85" s="10"/>
       <c r="V85" s="10"/>
     </row>
-    <row r="86" spans="1:22" ht="28.5" thickBot="1">
+    <row r="86" spans="1:22" ht="29.25" thickBot="1">
       <c r="A86" s="8">
         <v>5.024</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="U86" s="10"/>
       <c r="V86" s="10"/>
     </row>
-    <row r="87" spans="1:22" ht="15" thickBot="1">
+    <row r="87" spans="1:22" ht="15.75" thickBot="1">
       <c r="A87" s="8">
         <v>5.0039999999999996</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="U87" s="10"/>
       <c r="V87" s="10"/>
     </row>
-    <row r="88" spans="1:22" ht="15" thickBot="1">
+    <row r="88" spans="1:22" ht="15.75" thickBot="1">
       <c r="A88" s="8">
         <v>5.0049999999999999</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="U88" s="10"/>
       <c r="V88" s="10"/>
     </row>
-    <row r="89" spans="1:22" ht="15" thickBot="1">
+    <row r="89" spans="1:22" ht="15.75" thickBot="1">
       <c r="A89" s="8">
         <v>5.0060000000000002</v>
       </c>
@@ -7976,7 +7976,7 @@
       <c r="U89" s="10"/>
       <c r="V89" s="10"/>
     </row>
-    <row r="90" spans="1:22" ht="15" thickBot="1">
+    <row r="90" spans="1:22" ht="15.75" thickBot="1">
       <c r="A90" s="8">
         <v>5.0069999999999997</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="U90" s="10"/>
       <c r="V90" s="10"/>
     </row>
-    <row r="91" spans="1:22" ht="28.5" thickBot="1">
+    <row r="91" spans="1:22" ht="29.25" thickBot="1">
       <c r="A91" s="8">
         <v>5.0010000000000003</v>
       </c>
@@ -8092,7 +8092,7 @@
       <c r="U91" s="10"/>
       <c r="V91" s="10"/>
     </row>
-    <row r="92" spans="1:22" ht="28.5" thickBot="1">
+    <row r="92" spans="1:22" ht="29.25" thickBot="1">
       <c r="A92" s="8">
         <v>5.0090000000000003</v>
       </c>
@@ -8150,7 +8150,7 @@
       <c r="U92" s="10"/>
       <c r="V92" s="10"/>
     </row>
-    <row r="93" spans="1:22" ht="28.5" thickBot="1">
+    <row r="93" spans="1:22" ht="29.25" thickBot="1">
       <c r="A93" s="8">
         <v>5.01</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="U93" s="10"/>
       <c r="V93" s="10"/>
     </row>
-    <row r="94" spans="1:22" ht="28.5" thickBot="1">
+    <row r="94" spans="1:22" ht="29.25" thickBot="1">
       <c r="A94" s="8">
         <v>5.0019999999999998</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="U94" s="10"/>
       <c r="V94" s="10"/>
     </row>
-    <row r="95" spans="1:22" ht="28.5" thickBot="1">
+    <row r="95" spans="1:22" ht="29.25" thickBot="1">
       <c r="A95" s="8">
         <v>5.0110000000000001</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="U95" s="10"/>
       <c r="V95" s="10"/>
     </row>
-    <row r="96" spans="1:22" ht="28.5" thickBot="1">
+    <row r="96" spans="1:22" ht="29.25" thickBot="1">
       <c r="A96" s="8">
         <v>5.0030000000000001</v>
       </c>
@@ -8382,7 +8382,7 @@
       <c r="U96" s="10"/>
       <c r="V96" s="10"/>
     </row>
-    <row r="97" spans="1:22" ht="28.5" thickBot="1">
+    <row r="97" spans="1:22" ht="29.25" thickBot="1">
       <c r="A97" s="8">
         <v>5.0119999999999996</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="U97" s="10"/>
       <c r="V97" s="10"/>
     </row>
-    <row r="98" spans="1:22" ht="28.5" thickBot="1">
+    <row r="98" spans="1:22" ht="29.25" thickBot="1">
       <c r="A98" s="8">
         <v>5.0129999999999999</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="U98" s="10"/>
       <c r="V98" s="10"/>
     </row>
-    <row r="99" spans="1:22" ht="28.5" thickBot="1">
+    <row r="99" spans="1:22" ht="43.5" thickBot="1">
       <c r="A99" s="8">
         <v>5.0140000000000002</v>
       </c>
@@ -8556,7 +8556,7 @@
       <c r="U99" s="10"/>
       <c r="V99" s="10"/>
     </row>
-    <row r="100" spans="1:22" ht="28.5" thickBot="1">
+    <row r="100" spans="1:22" ht="29.25" thickBot="1">
       <c r="A100" s="8">
         <v>5.0149999999999997</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="U100" s="10"/>
       <c r="V100" s="10"/>
     </row>
-    <row r="101" spans="1:22" ht="28.5" thickBot="1">
+    <row r="101" spans="1:22" ht="29.25" thickBot="1">
       <c r="A101" s="8">
         <v>5.016</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="U101" s="10"/>
       <c r="V101" s="10"/>
     </row>
-    <row r="102" spans="1:22" ht="28.5" thickBot="1">
+    <row r="102" spans="1:22" ht="29.25" thickBot="1">
       <c r="A102" s="8">
         <v>5.0199999999999996</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="U102" s="10"/>
       <c r="V102" s="10"/>
     </row>
-    <row r="103" spans="1:22" ht="28.5" thickBot="1">
+    <row r="103" spans="1:22" ht="29.25" thickBot="1">
       <c r="A103" s="8">
         <v>5.0209999999999999</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="U103" s="10"/>
       <c r="V103" s="10"/>
     </row>
-    <row r="104" spans="1:22" ht="28.5" thickBot="1">
+    <row r="104" spans="1:22" ht="29.25" thickBot="1">
       <c r="A104" s="8">
         <v>5.0179999999999998</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="U104" s="10"/>
       <c r="V104" s="10"/>
     </row>
-    <row r="105" spans="1:22" ht="28.5" thickBot="1">
+    <row r="105" spans="1:22" ht="29.25" thickBot="1">
       <c r="A105" s="8">
         <v>5.0170000000000003</v>
       </c>
@@ -8904,7 +8904,7 @@
       <c r="U105" s="10"/>
       <c r="V105" s="10"/>
     </row>
-    <row r="106" spans="1:22" ht="15" thickBot="1">
+    <row r="106" spans="1:22" ht="15.75" thickBot="1">
       <c r="A106" s="8">
         <v>5.0190000000000001</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="U106" s="10"/>
       <c r="V106" s="10"/>
     </row>
-    <row r="107" spans="1:22" ht="15" thickBot="1">
+    <row r="107" spans="1:22" ht="15.75" thickBot="1">
       <c r="A107" s="9">
         <v>6</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="U107" s="10"/>
       <c r="V107" s="10"/>
     </row>
-    <row r="108" spans="1:22" ht="15" thickBot="1">
+    <row r="108" spans="1:22" ht="15.75" thickBot="1">
       <c r="A108" s="8">
         <v>6.0010000000000003</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="U108" s="10"/>
       <c r="V108" s="10"/>
     </row>
-    <row r="109" spans="1:22" ht="15" thickBot="1">
+    <row r="109" spans="1:22" ht="15.75" thickBot="1">
       <c r="A109" s="8">
         <v>6.0019999999999998</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="U109" s="10"/>
       <c r="V109" s="10"/>
     </row>
-    <row r="110" spans="1:22" ht="15" thickBot="1">
+    <row r="110" spans="1:22" ht="15.75" thickBot="1">
       <c r="A110" s="8">
         <v>6.0030000000000001</v>
       </c>
@@ -9168,7 +9168,7 @@
       <c r="U110" s="10"/>
       <c r="V110" s="10"/>
     </row>
-    <row r="111" spans="1:22" ht="15" thickBot="1">
+    <row r="111" spans="1:22" ht="15.75" thickBot="1">
       <c r="A111" s="8">
         <v>6.0140000000000002</v>
       </c>
@@ -9226,7 +9226,7 @@
       <c r="U111" s="10"/>
       <c r="V111" s="10"/>
     </row>
-    <row r="112" spans="1:22" ht="15" thickBot="1">
+    <row r="112" spans="1:22" ht="29.25" thickBot="1">
       <c r="A112" s="8">
         <v>6.0039999999999996</v>
       </c>
@@ -9284,7 +9284,7 @@
       <c r="U112" s="10"/>
       <c r="V112" s="10"/>
     </row>
-    <row r="113" spans="1:22" ht="15" thickBot="1">
+    <row r="113" spans="1:22" ht="29.25" thickBot="1">
       <c r="A113" s="8">
         <v>6.0049999999999999</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="U113" s="10"/>
       <c r="V113" s="10"/>
     </row>
-    <row r="114" spans="1:22" ht="15" thickBot="1">
+    <row r="114" spans="1:22" ht="15.75" thickBot="1">
       <c r="A114" s="8">
         <v>6.0060000000000002</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="U114" s="10"/>
       <c r="V114" s="10"/>
     </row>
-    <row r="115" spans="1:22" ht="15" thickBot="1">
+    <row r="115" spans="1:22" ht="15.75" thickBot="1">
       <c r="A115" s="8">
         <v>6.0069999999999997</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="U115" s="10"/>
       <c r="V115" s="10"/>
     </row>
-    <row r="116" spans="1:22" ht="15" thickBot="1">
+    <row r="116" spans="1:22" ht="15.75" thickBot="1">
       <c r="A116" s="8">
         <v>6.008</v>
       </c>
@@ -9516,7 +9516,7 @@
       <c r="U116" s="10"/>
       <c r="V116" s="10"/>
     </row>
-    <row r="117" spans="1:22" ht="15" thickBot="1">
+    <row r="117" spans="1:22" ht="15.75" thickBot="1">
       <c r="A117" s="8">
         <v>6.0090000000000003</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="U117" s="10"/>
       <c r="V117" s="10"/>
     </row>
-    <row r="118" spans="1:22" ht="15" thickBot="1">
+    <row r="118" spans="1:22" ht="15.75" thickBot="1">
       <c r="A118" s="8">
         <v>6.01</v>
       </c>
@@ -9632,7 +9632,7 @@
       <c r="U118" s="10"/>
       <c r="V118" s="10"/>
     </row>
-    <row r="119" spans="1:22" ht="15" thickBot="1">
+    <row r="119" spans="1:22" ht="15.75" thickBot="1">
       <c r="A119" s="8">
         <v>6.0110000000000001</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="U119" s="10"/>
       <c r="V119" s="10"/>
     </row>
-    <row r="120" spans="1:22" ht="15" thickBot="1">
+    <row r="120" spans="1:22" ht="15.75" thickBot="1">
       <c r="A120" s="8">
         <v>6.0119999999999996</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="U120" s="10"/>
       <c r="V120" s="10"/>
     </row>
-    <row r="121" spans="1:22" ht="15" thickBot="1">
+    <row r="121" spans="1:22" ht="15.75" thickBot="1">
       <c r="A121" s="8">
         <v>6.0129999999999999</v>
       </c>
@@ -9806,7 +9806,7 @@
       <c r="U121" s="10"/>
       <c r="V121" s="10"/>
     </row>
-    <row r="122" spans="1:22" ht="15" thickBot="1">
+    <row r="122" spans="1:22" ht="15.75" thickBot="1">
       <c r="A122" s="9">
         <v>7</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="U122" s="10"/>
       <c r="V122" s="10"/>
     </row>
-    <row r="123" spans="1:22" ht="28.5" thickBot="1">
+    <row r="123" spans="1:22" ht="29.25" thickBot="1">
       <c r="A123" s="8">
         <v>7.0010000000000003</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="U123" s="10"/>
       <c r="V123" s="10"/>
     </row>
-    <row r="124" spans="1:22" ht="28.5" thickBot="1">
+    <row r="124" spans="1:22" ht="29.25" thickBot="1">
       <c r="A124" s="8">
         <v>7.0030000000000001</v>
       </c>
@@ -9954,7 +9954,7 @@
       <c r="U124" s="10"/>
       <c r="V124" s="10"/>
     </row>
-    <row r="125" spans="1:22" ht="28.5" thickBot="1">
+    <row r="125" spans="1:22" ht="29.25" thickBot="1">
       <c r="A125" s="8">
         <v>7.0019999999999998</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="U125" s="10"/>
       <c r="V125" s="10"/>
     </row>
-    <row r="126" spans="1:22" ht="15" thickBot="1">
+    <row r="126" spans="1:22" ht="15.75" thickBot="1">
       <c r="A126" s="8">
         <v>7.0039999999999996</v>
       </c>
@@ -10070,7 +10070,7 @@
       <c r="U126" s="10"/>
       <c r="V126" s="10"/>
     </row>
-    <row r="127" spans="1:22" ht="28.5" thickBot="1">
+    <row r="127" spans="1:22" ht="29.25" thickBot="1">
       <c r="A127" s="8">
         <v>7.0049999999999999</v>
       </c>
@@ -10128,7 +10128,7 @@
       <c r="U127" s="10"/>
       <c r="V127" s="10"/>
     </row>
-    <row r="128" spans="1:22" ht="28.5" thickBot="1">
+    <row r="128" spans="1:22" ht="29.25" thickBot="1">
       <c r="A128" s="8">
         <v>7.008</v>
       </c>
@@ -10186,7 +10186,7 @@
       <c r="U128" s="10"/>
       <c r="V128" s="10"/>
     </row>
-    <row r="129" spans="1:22" ht="28.5" thickBot="1">
+    <row r="129" spans="1:22" ht="29.25" thickBot="1">
       <c r="A129" s="8">
         <v>7.0069999999999997</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="U129" s="10"/>
       <c r="V129" s="10"/>
     </row>
-    <row r="130" spans="1:22" ht="28.5" thickBot="1">
+    <row r="130" spans="1:22" ht="29.25" thickBot="1">
       <c r="A130" s="8">
         <v>7.0060000000000002</v>
       </c>
@@ -10302,7 +10302,7 @@
       <c r="U130" s="10"/>
       <c r="V130" s="10"/>
     </row>
-    <row r="131" spans="1:22" ht="28.5" thickBot="1">
+    <row r="131" spans="1:22" ht="29.25" thickBot="1">
       <c r="A131" s="8">
         <v>7.0110000000000001</v>
       </c>
@@ -10360,7 +10360,7 @@
       <c r="U131" s="10"/>
       <c r="V131" s="10"/>
     </row>
-    <row r="132" spans="1:22" ht="28.5" thickBot="1">
+    <row r="132" spans="1:22" ht="29.25" thickBot="1">
       <c r="A132" s="8">
         <v>7.01</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="U132" s="10"/>
       <c r="V132" s="10"/>
     </row>
-    <row r="133" spans="1:22" ht="28.5" thickBot="1">
+    <row r="133" spans="1:22" ht="29.25" thickBot="1">
       <c r="A133" s="8">
         <v>7.0090000000000003</v>
       </c>
@@ -10476,7 +10476,7 @@
       <c r="U133" s="10"/>
       <c r="V133" s="10"/>
     </row>
-    <row r="134" spans="1:22" ht="28.5" thickBot="1">
+    <row r="134" spans="1:22" ht="29.25" thickBot="1">
       <c r="A134" s="8">
         <v>7.0119999999999996</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="U134" s="10"/>
       <c r="V134" s="10"/>
     </row>
-    <row r="135" spans="1:22" ht="28.5" thickBot="1">
+    <row r="135" spans="1:22" ht="29.25" thickBot="1">
       <c r="A135" s="8">
         <v>7.0129999999999999</v>
       </c>
@@ -10592,7 +10592,7 @@
       <c r="U135" s="10"/>
       <c r="V135" s="10"/>
     </row>
-    <row r="136" spans="1:22" ht="28.5" thickBot="1">
+    <row r="136" spans="1:22" ht="29.25" thickBot="1">
       <c r="A136" s="8">
         <v>7.0149999999999997</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="U136" s="10"/>
       <c r="V136" s="10"/>
     </row>
-    <row r="137" spans="1:22" ht="28.5" thickBot="1">
+    <row r="137" spans="1:22" ht="29.25" thickBot="1">
       <c r="A137" s="8">
         <v>7.016</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="U137" s="10"/>
       <c r="V137" s="10"/>
     </row>
-    <row r="138" spans="1:22" ht="28.5" thickBot="1">
+    <row r="138" spans="1:22" ht="29.25" thickBot="1">
       <c r="A138" s="8">
         <v>7.0140000000000002</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="U138" s="10"/>
       <c r="V138" s="10"/>
     </row>
-    <row r="139" spans="1:22" ht="28.5" thickBot="1">
+    <row r="139" spans="1:22" ht="29.25" thickBot="1">
       <c r="A139" s="8">
         <v>7.0179999999999998</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="U139" s="10"/>
       <c r="V139" s="10"/>
     </row>
-    <row r="140" spans="1:22" ht="28.5" thickBot="1">
+    <row r="140" spans="1:22" ht="29.25" thickBot="1">
       <c r="A140" s="8">
         <v>7.0170000000000003</v>
       </c>
@@ -10882,7 +10882,7 @@
       <c r="U140" s="10"/>
       <c r="V140" s="10"/>
     </row>
-    <row r="141" spans="1:22" ht="28.5" thickBot="1">
+    <row r="141" spans="1:22" ht="30.75" thickBot="1">
       <c r="A141" s="9">
         <v>8</v>
       </c>
@@ -10914,7 +10914,7 @@
       <c r="U141" s="10"/>
       <c r="V141" s="10"/>
     </row>
-    <row r="142" spans="1:22" ht="15" thickBot="1">
+    <row r="142" spans="1:22" ht="15.75" thickBot="1">
       <c r="A142" s="8">
         <v>8.0009999999999994</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="U142" s="10"/>
       <c r="V142" s="10"/>
     </row>
-    <row r="143" spans="1:22" ht="15" thickBot="1">
+    <row r="143" spans="1:22" ht="15.75" thickBot="1">
       <c r="A143" s="8">
         <v>8.0020000000000007</v>
       </c>
@@ -11030,7 +11030,7 @@
       <c r="U143" s="10"/>
       <c r="V143" s="10"/>
     </row>
-    <row r="144" spans="1:22" ht="15" thickBot="1">
+    <row r="144" spans="1:22" ht="15.75" thickBot="1">
       <c r="A144" s="8">
         <v>8.0030000000000001</v>
       </c>
@@ -11088,7 +11088,7 @@
       <c r="U144" s="10"/>
       <c r="V144" s="10"/>
     </row>
-    <row r="145" spans="1:22" ht="15" thickBot="1">
+    <row r="145" spans="1:22" ht="15.75" thickBot="1">
       <c r="A145" s="8">
         <v>8.0039999999999996</v>
       </c>
@@ -11146,7 +11146,7 @@
       <c r="U145" s="10"/>
       <c r="V145" s="10"/>
     </row>
-    <row r="146" spans="1:22" ht="15" thickBot="1">
+    <row r="146" spans="1:22" ht="15.75" thickBot="1">
       <c r="A146" s="8">
         <v>8.0050000000000008</v>
       </c>
@@ -11204,7 +11204,7 @@
       <c r="U146" s="10"/>
       <c r="V146" s="10"/>
     </row>
-    <row r="147" spans="1:22" ht="28.5" thickBot="1">
+    <row r="147" spans="1:22" ht="30.75" thickBot="1">
       <c r="A147" s="9">
         <v>9</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="U147" s="10"/>
       <c r="V147" s="10"/>
     </row>
-    <row r="148" spans="1:22" ht="15" thickBot="1">
+    <row r="148" spans="1:22" ht="15.75" thickBot="1">
       <c r="A148" s="8">
         <v>9.0009999999999994</v>
       </c>
@@ -11294,7 +11294,7 @@
       <c r="U148" s="10"/>
       <c r="V148" s="10"/>
     </row>
-    <row r="149" spans="1:22" ht="15" thickBot="1">
+    <row r="149" spans="1:22" ht="15.75" thickBot="1">
       <c r="A149" s="8">
         <v>9.0020000000000007</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="U149" s="10"/>
       <c r="V149" s="10"/>
     </row>
-    <row r="150" spans="1:22" ht="15" thickBot="1">
+    <row r="150" spans="1:22" ht="15.75" thickBot="1">
       <c r="A150" s="8">
         <v>9.0030000000000001</v>
       </c>
@@ -11410,7 +11410,7 @@
       <c r="U150" s="10"/>
       <c r="V150" s="10"/>
     </row>
-    <row r="151" spans="1:22" ht="15" thickBot="1">
+    <row r="151" spans="1:22" ht="15.75" thickBot="1">
       <c r="A151" s="8">
         <v>9.0039999999999996</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="U151" s="10"/>
       <c r="V151" s="10"/>
     </row>
-    <row r="152" spans="1:22" ht="15" thickBot="1">
+    <row r="152" spans="1:22" ht="15.75" thickBot="1">
       <c r="A152" s="8">
         <v>9.0050000000000008</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="U152" s="10"/>
       <c r="V152" s="10"/>
     </row>
-    <row r="153" spans="1:22" ht="15" thickBot="1">
+    <row r="153" spans="1:22" ht="15.75" thickBot="1">
       <c r="A153" s="8">
         <v>9.0060000000000002</v>
       </c>
@@ -11584,7 +11584,7 @@
       <c r="U153" s="10"/>
       <c r="V153" s="10"/>
     </row>
-    <row r="154" spans="1:22" ht="15" thickBot="1">
+    <row r="154" spans="1:22" ht="15.75" thickBot="1">
       <c r="A154" s="8">
         <v>9.0069999999999997</v>
       </c>
@@ -11642,7 +11642,7 @@
       <c r="U154" s="10"/>
       <c r="V154" s="10"/>
     </row>
-    <row r="155" spans="1:22" ht="15" thickBot="1">
+    <row r="155" spans="1:22" ht="15.75" thickBot="1">
       <c r="A155" s="8">
         <v>9.0079999999999991</v>
       </c>
@@ -11700,7 +11700,7 @@
       <c r="U155" s="10"/>
       <c r="V155" s="10"/>
     </row>
-    <row r="156" spans="1:22" ht="15" thickBot="1">
+    <row r="156" spans="1:22" ht="15.75" thickBot="1">
       <c r="A156" s="9">
         <v>10</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="U156" s="10"/>
       <c r="V156" s="10"/>
     </row>
-    <row r="157" spans="1:22" ht="15" thickBot="1">
+    <row r="157" spans="1:22" ht="15.75" thickBot="1">
       <c r="A157" s="8">
         <v>10.013999999999999</v>
       </c>
@@ -11790,7 +11790,7 @@
       <c r="U157" s="10"/>
       <c r="V157" s="10"/>
     </row>
-    <row r="158" spans="1:22" ht="15" thickBot="1">
+    <row r="158" spans="1:22" ht="15.75" thickBot="1">
       <c r="A158" s="8">
         <v>10.012</v>
       </c>
@@ -11848,7 +11848,7 @@
       <c r="U158" s="10"/>
       <c r="V158" s="10"/>
     </row>
-    <row r="159" spans="1:22" ht="15" thickBot="1">
+    <row r="159" spans="1:22" ht="15.75" thickBot="1">
       <c r="A159" s="8">
         <v>10.010999999999999</v>
       </c>
@@ -11906,7 +11906,7 @@
       <c r="U159" s="10"/>
       <c r="V159" s="10"/>
     </row>
-    <row r="160" spans="1:22" ht="15" thickBot="1">
+    <row r="160" spans="1:22" ht="15.75" thickBot="1">
       <c r="A160" s="8">
         <v>10.016</v>
       </c>
@@ -11964,7 +11964,7 @@
       <c r="U160" s="10"/>
       <c r="V160" s="10"/>
     </row>
-    <row r="161" spans="1:22" ht="15" thickBot="1">
+    <row r="161" spans="1:22" ht="15.75" thickBot="1">
       <c r="A161" s="8">
         <v>10.016999999999999</v>
       </c>
@@ -12022,7 +12022,7 @@
       <c r="U161" s="10"/>
       <c r="V161" s="10"/>
     </row>
-    <row r="162" spans="1:22" ht="15" thickBot="1">
+    <row r="162" spans="1:22" ht="15.75" thickBot="1">
       <c r="A162" s="8">
         <v>10.000999999999999</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="U162" s="10"/>
       <c r="V162" s="10"/>
     </row>
-    <row r="163" spans="1:22" ht="15" thickBot="1">
+    <row r="163" spans="1:22" ht="15.75" thickBot="1">
       <c r="A163" s="8">
         <v>10.002000000000001</v>
       </c>
@@ -12138,7 +12138,7 @@
       <c r="U163" s="10"/>
       <c r="V163" s="10"/>
     </row>
-    <row r="164" spans="1:22" ht="15" thickBot="1">
+    <row r="164" spans="1:22" ht="15.75" thickBot="1">
       <c r="A164" s="8">
         <v>10.003</v>
       </c>
@@ -12196,7 +12196,7 @@
       <c r="U164" s="10"/>
       <c r="V164" s="10"/>
     </row>
-    <row r="165" spans="1:22" ht="15" thickBot="1">
+    <row r="165" spans="1:22" ht="15.75" thickBot="1">
       <c r="A165" s="8">
         <v>10.004</v>
       </c>
@@ -12254,7 +12254,7 @@
       <c r="U165" s="10"/>
       <c r="V165" s="10"/>
     </row>
-    <row r="166" spans="1:22" ht="15" thickBot="1">
+    <row r="166" spans="1:22" ht="15.75" thickBot="1">
       <c r="A166" s="8">
         <v>10.005000000000001</v>
       </c>
@@ -12312,7 +12312,7 @@
       <c r="U166" s="10"/>
       <c r="V166" s="10"/>
     </row>
-    <row r="167" spans="1:22" ht="15" thickBot="1">
+    <row r="167" spans="1:22" ht="15.75" thickBot="1">
       <c r="A167" s="8">
         <v>10.006</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="U167" s="10"/>
       <c r="V167" s="10"/>
     </row>
-    <row r="168" spans="1:22" ht="15" thickBot="1">
+    <row r="168" spans="1:22" ht="15.75" thickBot="1">
       <c r="A168" s="8">
         <v>10.007</v>
       </c>
@@ -12428,7 +12428,7 @@
       <c r="U168" s="10"/>
       <c r="V168" s="10"/>
     </row>
-    <row r="169" spans="1:22" ht="15" thickBot="1">
+    <row r="169" spans="1:22" ht="15.75" thickBot="1">
       <c r="A169" s="8">
         <v>10.013</v>
       </c>
@@ -12486,7 +12486,7 @@
       <c r="U169" s="10"/>
       <c r="V169" s="10"/>
     </row>
-    <row r="170" spans="1:22" ht="15" thickBot="1">
+    <row r="170" spans="1:22" ht="15.75" thickBot="1">
       <c r="A170" s="8">
         <v>10.007999999999999</v>
       </c>
@@ -12544,7 +12544,7 @@
       <c r="U170" s="10"/>
       <c r="V170" s="10"/>
     </row>
-    <row r="171" spans="1:22" ht="15" thickBot="1">
+    <row r="171" spans="1:22" ht="15.75" thickBot="1">
       <c r="A171" s="8">
         <v>10.015000000000001</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="U171" s="10"/>
       <c r="V171" s="10"/>
     </row>
-    <row r="172" spans="1:22" ht="15" thickBot="1">
+    <row r="172" spans="1:22" ht="15.75" thickBot="1">
       <c r="A172" s="8">
         <v>10.009</v>
       </c>
@@ -12660,7 +12660,7 @@
       <c r="U172" s="10"/>
       <c r="V172" s="10"/>
     </row>
-    <row r="173" spans="1:22" ht="15" thickBot="1">
+    <row r="173" spans="1:22" ht="15.75" thickBot="1">
       <c r="A173" s="8">
         <v>10.01</v>
       </c>
@@ -12718,7 +12718,7 @@
       <c r="U173" s="10"/>
       <c r="V173" s="10"/>
     </row>
-    <row r="174" spans="1:22" ht="15" thickBot="1">
+    <row r="174" spans="1:22" ht="15.75" thickBot="1">
       <c r="A174" s="9">
         <v>11</v>
       </c>
@@ -12750,7 +12750,7 @@
       <c r="U174" s="10"/>
       <c r="V174" s="10"/>
     </row>
-    <row r="175" spans="1:22" ht="28.5" thickBot="1">
+    <row r="175" spans="1:22" ht="29.25" thickBot="1">
       <c r="A175" s="8">
         <v>11.000999999999999</v>
       </c>
@@ -12808,7 +12808,7 @@
       <c r="U175" s="10"/>
       <c r="V175" s="10"/>
     </row>
-    <row r="176" spans="1:22" ht="42.5" thickBot="1">
+    <row r="176" spans="1:22" ht="43.5" thickBot="1">
       <c r="A176" s="8">
         <v>11.002000000000001</v>
       </c>
@@ -12866,7 +12866,7 @@
       <c r="U176" s="10"/>
       <c r="V176" s="10"/>
     </row>
-    <row r="177" spans="1:22" ht="15" thickBot="1">
+    <row r="177" spans="1:22" ht="15.75" thickBot="1">
       <c r="A177" s="8">
         <v>11.003</v>
       </c>
@@ -12924,7 +12924,7 @@
       <c r="U177" s="10"/>
       <c r="V177" s="10"/>
     </row>
-    <row r="178" spans="1:22" ht="15" thickBot="1">
+    <row r="178" spans="1:22" ht="15.75" thickBot="1">
       <c r="A178" s="8">
         <v>11.004</v>
       </c>
@@ -12982,7 +12982,7 @@
       <c r="U178" s="10"/>
       <c r="V178" s="10"/>
     </row>
-    <row r="179" spans="1:22" ht="15" thickBot="1">
+    <row r="179" spans="1:22" ht="15.75" thickBot="1">
       <c r="A179" s="8">
         <v>11.005000000000001</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="U179" s="10"/>
       <c r="V179" s="10"/>
     </row>
-    <row r="180" spans="1:22" ht="15" thickBot="1">
+    <row r="180" spans="1:22" ht="15.75" thickBot="1">
       <c r="A180" s="8">
         <v>11.006</v>
       </c>
@@ -13098,7 +13098,7 @@
       <c r="U180" s="10"/>
       <c r="V180" s="10"/>
     </row>
-    <row r="181" spans="1:22" ht="15" thickBot="1">
+    <row r="181" spans="1:22" ht="15.75" thickBot="1">
       <c r="A181" s="8">
         <v>11.007</v>
       </c>
@@ -13156,7 +13156,7 @@
       <c r="U181" s="10"/>
       <c r="V181" s="10"/>
     </row>
-    <row r="182" spans="1:22" ht="15" thickBot="1">
+    <row r="182" spans="1:22" ht="15.75" thickBot="1">
       <c r="A182" s="8">
         <v>11.007999999999999</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="U182" s="10"/>
       <c r="V182" s="10"/>
     </row>
-    <row r="183" spans="1:22" ht="15" thickBot="1">
+    <row r="183" spans="1:22" ht="15.75" thickBot="1">
       <c r="A183" s="8">
         <v>11.009</v>
       </c>
@@ -13272,7 +13272,7 @@
       <c r="U183" s="10"/>
       <c r="V183" s="10"/>
     </row>
-    <row r="184" spans="1:22" ht="15" thickBot="1">
+    <row r="184" spans="1:22" ht="15.75" thickBot="1">
       <c r="A184" s="8">
         <v>11.01</v>
       </c>
@@ -13330,7 +13330,7 @@
       <c r="U184" s="10"/>
       <c r="V184" s="10"/>
     </row>
-    <row r="185" spans="1:22" ht="15" thickBot="1">
+    <row r="185" spans="1:22" ht="15.75" thickBot="1">
       <c r="A185" s="8">
         <v>11.010999999999999</v>
       </c>
@@ -13388,7 +13388,7 @@
       <c r="U185" s="10"/>
       <c r="V185" s="10"/>
     </row>
-    <row r="186" spans="1:22" ht="28.5" thickBot="1">
+    <row r="186" spans="1:22" ht="29.25" thickBot="1">
       <c r="A186" s="8">
         <v>11.012</v>
       </c>
@@ -13446,7 +13446,7 @@
       <c r="U186" s="10"/>
       <c r="V186" s="10"/>
     </row>
-    <row r="187" spans="1:22" ht="15" thickBot="1">
+    <row r="187" spans="1:22" ht="15.75" thickBot="1">
       <c r="A187" s="8">
         <v>11.013</v>
       </c>
@@ -13504,7 +13504,7 @@
       <c r="U187" s="10"/>
       <c r="V187" s="10"/>
     </row>
-    <row r="188" spans="1:22" ht="15" thickBot="1">
+    <row r="188" spans="1:22" ht="15.75" thickBot="1">
       <c r="A188" s="8">
         <v>11.013999999999999</v>
       </c>
@@ -13562,7 +13562,7 @@
       <c r="U188" s="10"/>
       <c r="V188" s="10"/>
     </row>
-    <row r="189" spans="1:22" ht="15" thickBot="1">
+    <row r="189" spans="1:22" ht="15.75" thickBot="1">
       <c r="A189" s="8">
         <v>11.015000000000001</v>
       </c>
@@ -13620,7 +13620,7 @@
       <c r="U189" s="10"/>
       <c r="V189" s="10"/>
     </row>
-    <row r="190" spans="1:22" ht="15" thickBot="1">
+    <row r="190" spans="1:22" ht="29.25" thickBot="1">
       <c r="A190" s="8">
         <v>11.018000000000001</v>
       </c>
@@ -13678,7 +13678,7 @@
       <c r="U190" s="10"/>
       <c r="V190" s="10"/>
     </row>
-    <row r="191" spans="1:22" ht="15" thickBot="1">
+    <row r="191" spans="1:22" ht="29.25" thickBot="1">
       <c r="A191" s="8">
         <v>11.019</v>
       </c>
@@ -13736,7 +13736,7 @@
       <c r="U191" s="10"/>
       <c r="V191" s="10"/>
     </row>
-    <row r="192" spans="1:22" ht="15" thickBot="1">
+    <row r="192" spans="1:22" ht="29.25" thickBot="1">
       <c r="A192" s="8">
         <v>11.02</v>
       </c>
@@ -13794,7 +13794,7 @@
       <c r="U192" s="10"/>
       <c r="V192" s="10"/>
     </row>
-    <row r="193" spans="1:22" ht="15" thickBot="1">
+    <row r="193" spans="1:22" ht="15.75" thickBot="1">
       <c r="A193" s="8">
         <v>11.021000000000001</v>
       </c>
@@ -13852,7 +13852,7 @@
       <c r="U193" s="10"/>
       <c r="V193" s="10"/>
     </row>
-    <row r="194" spans="1:22" ht="15" thickBot="1">
+    <row r="194" spans="1:22" ht="15.75" thickBot="1">
       <c r="A194" s="8">
         <v>11.022</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="U194" s="10"/>
       <c r="V194" s="10"/>
     </row>
-    <row r="195" spans="1:22" ht="28.5" thickBot="1">
+    <row r="195" spans="1:22" ht="29.25" thickBot="1">
       <c r="A195" s="8">
         <v>11.023</v>
       </c>
@@ -13968,7 +13968,7 @@
       <c r="U195" s="10"/>
       <c r="V195" s="10"/>
     </row>
-    <row r="196" spans="1:22" ht="15" thickBot="1">
+    <row r="196" spans="1:22" ht="15.75" thickBot="1">
       <c r="A196" s="8">
         <v>11.023999999999999</v>
       </c>
@@ -14026,7 +14026,7 @@
       <c r="U196" s="10"/>
       <c r="V196" s="10"/>
     </row>
-    <row r="197" spans="1:22" ht="15" thickBot="1">
+    <row r="197" spans="1:22" ht="15.75" thickBot="1">
       <c r="A197" s="8">
         <v>11.025</v>
       </c>
@@ -14084,7 +14084,7 @@
       <c r="U197" s="10"/>
       <c r="V197" s="10"/>
     </row>
-    <row r="198" spans="1:22" ht="15" thickBot="1">
+    <row r="198" spans="1:22" ht="15.75" thickBot="1">
       <c r="A198" s="8">
         <v>11.026</v>
       </c>
@@ -14142,7 +14142,7 @@
       <c r="U198" s="10"/>
       <c r="V198" s="10"/>
     </row>
-    <row r="199" spans="1:22" ht="15" thickBot="1">
+    <row r="199" spans="1:22" ht="15.75" thickBot="1">
       <c r="A199" s="8">
         <v>11.026999999999999</v>
       </c>
@@ -14200,7 +14200,7 @@
       <c r="U199" s="10"/>
       <c r="V199" s="10"/>
     </row>
-    <row r="200" spans="1:22" ht="15" thickBot="1">
+    <row r="200" spans="1:22" ht="15.75" thickBot="1">
       <c r="A200" s="9">
         <v>12</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="U200" s="10"/>
       <c r="V200" s="10"/>
     </row>
-    <row r="201" spans="1:22" ht="15" thickBot="1">
+    <row r="201" spans="1:22" ht="15.75" thickBot="1">
       <c r="A201" s="8">
         <v>12.000999999999999</v>
       </c>
@@ -14290,7 +14290,7 @@
       <c r="U201" s="10"/>
       <c r="V201" s="10"/>
     </row>
-    <row r="202" spans="1:22" ht="15" thickBot="1">
+    <row r="202" spans="1:22" ht="15.75" thickBot="1">
       <c r="A202" s="8">
         <v>12.002000000000001</v>
       </c>
@@ -14348,7 +14348,7 @@
       <c r="U202" s="10"/>
       <c r="V202" s="10"/>
     </row>
-    <row r="203" spans="1:22" ht="15" thickBot="1">
+    <row r="203" spans="1:22" ht="15.75" thickBot="1">
       <c r="A203" s="8">
         <v>12.003</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="U203" s="10"/>
       <c r="V203" s="10"/>
     </row>
-    <row r="204" spans="1:22" ht="15" thickBot="1">
+    <row r="204" spans="1:22" ht="15.75" thickBot="1">
       <c r="A204" s="8">
         <v>12.004</v>
       </c>
@@ -14464,7 +14464,7 @@
       <c r="U204" s="10"/>
       <c r="V204" s="10"/>
     </row>
-    <row r="205" spans="1:22" ht="15" thickBot="1">
+    <row r="205" spans="1:22" ht="15.75" thickBot="1">
       <c r="A205" s="9">
         <v>13</v>
       </c>
@@ -14496,7 +14496,7 @@
       <c r="U205" s="10"/>
       <c r="V205" s="10"/>
     </row>
-    <row r="206" spans="1:22" ht="15" thickBot="1">
+    <row r="206" spans="1:22" ht="29.25" thickBot="1">
       <c r="A206" s="8">
         <v>13.000999999999999</v>
       </c>
@@ -14554,7 +14554,7 @@
       <c r="U206" s="10"/>
       <c r="V206" s="10"/>
     </row>
-    <row r="207" spans="1:22" ht="15" thickBot="1">
+    <row r="207" spans="1:22" ht="15.75" thickBot="1">
       <c r="A207" s="8">
         <v>13.005000000000001</v>
       </c>
@@ -14612,7 +14612,7 @@
       <c r="U207" s="10"/>
       <c r="V207" s="10"/>
     </row>
-    <row r="208" spans="1:22" ht="15" thickBot="1">
+    <row r="208" spans="1:22" ht="15.75" thickBot="1">
       <c r="A208" s="8">
         <v>13.002000000000001</v>
       </c>
@@ -14670,7 +14670,7 @@
       <c r="U208" s="10"/>
       <c r="V208" s="10"/>
     </row>
-    <row r="209" spans="1:22" ht="15" thickBot="1">
+    <row r="209" spans="1:22" ht="15.75" thickBot="1">
       <c r="A209" s="8">
         <v>13.003</v>
       </c>
@@ -14728,7 +14728,7 @@
       <c r="U209" s="10"/>
       <c r="V209" s="10"/>
     </row>
-    <row r="210" spans="1:22" ht="15" thickBot="1">
+    <row r="210" spans="1:22" ht="15.75" thickBot="1">
       <c r="A210" s="8">
         <v>13.004</v>
       </c>
@@ -14786,7 +14786,7 @@
       <c r="U210" s="10"/>
       <c r="V210" s="10"/>
     </row>
-    <row r="211" spans="1:22" ht="15" thickBot="1">
+    <row r="211" spans="1:22" ht="15.75" thickBot="1">
       <c r="A211" s="9">
         <v>14</v>
       </c>
@@ -14818,7 +14818,7 @@
       <c r="U211" s="10"/>
       <c r="V211" s="10"/>
     </row>
-    <row r="212" spans="1:22" ht="28.5" thickBot="1">
+    <row r="212" spans="1:22" ht="29.25" thickBot="1">
       <c r="A212" s="8">
         <v>14.002000000000001</v>
       </c>
@@ -14876,7 +14876,7 @@
       <c r="U212" s="10"/>
       <c r="V212" s="10"/>
     </row>
-    <row r="213" spans="1:22" ht="15" thickBot="1">
+    <row r="213" spans="1:22" ht="29.25" thickBot="1">
       <c r="A213" s="8">
         <v>14.000999999999999</v>
       </c>
@@ -14934,7 +14934,7 @@
       <c r="U213" s="10"/>
       <c r="V213" s="10"/>
     </row>
-    <row r="214" spans="1:22" ht="15" thickBot="1">
+    <row r="214" spans="1:22" ht="15.75" thickBot="1">
       <c r="A214" s="8">
         <v>14.003</v>
       </c>
@@ -14992,7 +14992,7 @@
       <c r="U214" s="10"/>
       <c r="V214" s="10"/>
     </row>
-    <row r="215" spans="1:22" ht="15" thickBot="1">
+    <row r="215" spans="1:22" ht="15.75" thickBot="1">
       <c r="A215" s="8">
         <v>14.004</v>
       </c>
@@ -15050,7 +15050,7 @@
       <c r="U215" s="10"/>
       <c r="V215" s="10"/>
     </row>
-    <row r="216" spans="1:22" ht="15" thickBot="1">
+    <row r="216" spans="1:22" ht="15.75" thickBot="1">
       <c r="A216" s="8">
         <v>14.005000000000001</v>
       </c>
@@ -15108,7 +15108,7 @@
       <c r="U216" s="10"/>
       <c r="V216" s="10"/>
     </row>
-    <row r="217" spans="1:22" ht="15" thickBot="1">
+    <row r="217" spans="1:22" ht="15.75" thickBot="1">
       <c r="A217" s="8">
         <v>14.006</v>
       </c>
@@ -15166,7 +15166,7 @@
       <c r="U217" s="10"/>
       <c r="V217" s="10"/>
     </row>
-    <row r="218" spans="1:22" ht="15" thickBot="1">
+    <row r="218" spans="1:22" ht="15.75" thickBot="1">
       <c r="A218" s="8">
         <v>14.007</v>
       </c>
@@ -15224,7 +15224,7 @@
       <c r="U218" s="10"/>
       <c r="V218" s="10"/>
     </row>
-    <row r="219" spans="1:22" ht="15" thickBot="1">
+    <row r="219" spans="1:22" ht="15.75" thickBot="1">
       <c r="A219" s="8">
         <v>14.007999999999999</v>
       </c>
@@ -15282,7 +15282,7 @@
       <c r="U219" s="10"/>
       <c r="V219" s="10"/>
     </row>
-    <row r="220" spans="1:22" ht="15" thickBot="1">
+    <row r="220" spans="1:22" ht="15.75" thickBot="1">
       <c r="A220" s="9">
         <v>15</v>
       </c>
@@ -15314,7 +15314,7 @@
       <c r="U220" s="10"/>
       <c r="V220" s="10"/>
     </row>
-    <row r="221" spans="1:22" ht="15" thickBot="1">
+    <row r="221" spans="1:22" ht="15.75" thickBot="1">
       <c r="A221" s="8">
         <v>15.000999999999999</v>
       </c>
@@ -15372,7 +15372,7 @@
       <c r="U221" s="10"/>
       <c r="V221" s="10"/>
     </row>
-    <row r="222" spans="1:22" ht="15" thickBot="1">
+    <row r="222" spans="1:22" ht="29.25" thickBot="1">
       <c r="A222" s="8">
         <v>15.002000000000001</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="U222" s="10"/>
       <c r="V222" s="10"/>
     </row>
-    <row r="223" spans="1:22" ht="15" thickBot="1">
+    <row r="223" spans="1:22" ht="15.75" thickBot="1">
       <c r="A223" s="8">
         <v>15.003</v>
       </c>
@@ -15488,7 +15488,7 @@
       <c r="U223" s="10"/>
       <c r="V223" s="10"/>
     </row>
-    <row r="224" spans="1:22" ht="15" thickBot="1">
+    <row r="224" spans="1:22" ht="15.75" thickBot="1">
       <c r="A224" s="8">
         <v>15.004</v>
       </c>
@@ -15546,7 +15546,7 @@
       <c r="U224" s="10"/>
       <c r="V224" s="10"/>
     </row>
-    <row r="225" spans="1:23" ht="15" thickBot="1">
+    <row r="225" spans="1:23" ht="15.75" thickBot="1">
       <c r="A225" s="8">
         <v>15.005000000000001</v>
       </c>
@@ -15604,7 +15604,7 @@
       <c r="U225" s="10"/>
       <c r="V225" s="10"/>
     </row>
-    <row r="226" spans="1:23" ht="15" thickBot="1">
+    <row r="226" spans="1:23" ht="15.75" thickBot="1">
       <c r="A226" s="9">
         <v>21</v>
       </c>
@@ -15636,7 +15636,7 @@
       <c r="U226" s="10"/>
       <c r="V226" s="10"/>
     </row>
-    <row r="227" spans="1:23" ht="15" thickBot="1">
+    <row r="227" spans="1:23" ht="15.75" thickBot="1">
       <c r="A227" s="8">
         <v>21.001000000000001</v>
       </c>
@@ -15694,7 +15694,7 @@
       <c r="U227" s="10"/>
       <c r="V227" s="10"/>
     </row>
-    <row r="228" spans="1:23" ht="15" thickBot="1">
+    <row r="228" spans="1:23" ht="15.75" thickBot="1">
       <c r="A228" s="8">
         <v>21.001999999999999</v>
       </c>
@@ -15752,7 +15752,7 @@
       <c r="U228" s="10"/>
       <c r="V228" s="10"/>
     </row>
-    <row r="229" spans="1:23" ht="15" thickBot="1">
+    <row r="229" spans="1:23" ht="15.75" thickBot="1">
       <c r="A229" s="8">
         <v>21.003</v>
       </c>
@@ -15810,7 +15810,7 @@
       <c r="U229" s="10"/>
       <c r="V229" s="10"/>
     </row>
-    <row r="230" spans="1:23" ht="28.5" thickBot="1">
+    <row r="230" spans="1:23" ht="29.25" thickBot="1">
       <c r="A230" s="8">
         <v>21.004000000000001</v>
       </c>
@@ -15868,7 +15868,7 @@
       <c r="U230" s="10"/>
       <c r="V230" s="10"/>
     </row>
-    <row r="231" spans="1:23" ht="15" thickBot="1">
+    <row r="231" spans="1:23" ht="15.75" thickBot="1">
       <c r="A231" s="8">
         <v>21.004999999999999</v>
       </c>
@@ -15926,7 +15926,7 @@
       <c r="U231" s="10"/>
       <c r="V231" s="10"/>
     </row>
-    <row r="232" spans="1:23" ht="15" thickBot="1">
+    <row r="232" spans="1:23" ht="15.75" thickBot="1">
       <c r="A232" s="8">
         <v>21.006</v>
       </c>
@@ -15984,7 +15984,7 @@
       <c r="U232" s="10"/>
       <c r="V232" s="10"/>
     </row>
-    <row r="233" spans="1:23" ht="15" thickBot="1">
+    <row r="233" spans="1:23" ht="15.75" thickBot="1">
       <c r="A233" s="8">
         <v>21.007000000000001</v>
       </c>
@@ -16042,7 +16042,7 @@
       <c r="U233" s="10"/>
       <c r="V233" s="10"/>
     </row>
-    <row r="234" spans="1:23" ht="15" thickBot="1">
+    <row r="234" spans="1:23" ht="15.75" thickBot="1">
       <c r="A234" s="8">
         <v>21.007999999999999</v>
       </c>
@@ -16100,7 +16100,7 @@
       <c r="U234" s="10"/>
       <c r="V234" s="10"/>
     </row>
-    <row r="235" spans="1:23" ht="15" thickBot="1">
+    <row r="235" spans="1:23" ht="15.75" thickBot="1">
       <c r="A235" s="8">
         <v>21.009</v>
       </c>
@@ -16216,7 +16216,7 @@
       <c r="U236" s="10"/>
       <c r="V236" s="10"/>
     </row>
-    <row r="237" spans="1:23" ht="15" thickBot="1">
+    <row r="237" spans="1:23" ht="15.75" thickBot="1">
       <c r="A237" s="8">
         <v>21.010999999999999</v>
       </c>
@@ -16274,7 +16274,7 @@
       <c r="U237" s="10"/>
       <c r="V237" s="10"/>
     </row>
-    <row r="238" spans="1:23" ht="15" thickBot="1">
+    <row r="238" spans="1:23" ht="15.75" thickBot="1">
       <c r="A238" s="8">
         <v>21.012</v>
       </c>
@@ -16332,7 +16332,7 @@
       <c r="U238" s="10"/>
       <c r="V238" s="10"/>
     </row>
-    <row r="239" spans="1:23" ht="28.5" thickBot="1">
+    <row r="239" spans="1:23" ht="29.25" thickBot="1">
       <c r="A239" s="8">
         <v>21.013000000000002</v>
       </c>
@@ -16390,7 +16390,7 @@
       <c r="U239" s="10"/>
       <c r="V239" s="10"/>
     </row>
-    <row r="240" spans="1:23" ht="15" thickBot="1">
+    <row r="240" spans="1:23" ht="15.75" thickBot="1">
       <c r="A240" s="19">
         <v>31</v>
       </c>
@@ -16421,7 +16421,7 @@
       <c r="V240" s="10"/>
       <c r="W240" s="10"/>
     </row>
-    <row r="241" spans="1:23" ht="28.5" thickBot="1">
+    <row r="241" spans="1:23" ht="29.25" thickBot="1">
       <c r="A241" s="20">
         <v>31.001000000000001</v>
       </c>
@@ -16480,7 +16480,7 @@
       <c r="V241" s="10"/>
       <c r="W241" s="10"/>
     </row>
-    <row r="242" spans="1:23" ht="28.5" thickBot="1">
+    <row r="242" spans="1:23" ht="29.25" thickBot="1">
       <c r="A242" s="20">
         <v>31.001999999999999</v>
       </c>
@@ -16539,7 +16539,7 @@
       <c r="V242" s="10"/>
       <c r="W242" s="10"/>
     </row>
-    <row r="243" spans="1:23" ht="28.5" thickBot="1">
+    <row r="243" spans="1:23" ht="29.25" thickBot="1">
       <c r="A243" s="20">
         <v>31.003</v>
       </c>
@@ -16598,7 +16598,7 @@
       <c r="V243" s="10"/>
       <c r="W243" s="10"/>
     </row>
-    <row r="244" spans="1:23" ht="15" thickBot="1">
+    <row r="244" spans="1:23" ht="15.75" thickBot="1">
       <c r="A244" s="20">
         <v>31.021000000000001</v>
       </c>
@@ -16657,7 +16657,7 @@
       <c r="V244" s="10"/>
       <c r="W244" s="10"/>
     </row>
-    <row r="245" spans="1:23" ht="15" thickBot="1">
+    <row r="245" spans="1:23" ht="15.75" thickBot="1">
       <c r="A245" s="20">
         <v>31.021999999999998</v>
       </c>
@@ -16716,7 +16716,7 @@
       <c r="V245" s="10"/>
       <c r="W245" s="10"/>
     </row>
-    <row r="246" spans="1:23" ht="15" thickBot="1">
+    <row r="246" spans="1:23" ht="15.75" thickBot="1">
       <c r="A246" s="20">
         <v>31.023</v>
       </c>
@@ -16775,7 +16775,7 @@
       <c r="V246" s="10"/>
       <c r="W246" s="10"/>
     </row>
-    <row r="247" spans="1:23" ht="15" thickBot="1">
+    <row r="247" spans="1:23" ht="29.25" thickBot="1">
       <c r="A247" s="20">
         <v>31.024000000000001</v>
       </c>
@@ -16834,7 +16834,7 @@
       <c r="V247" s="10"/>
       <c r="W247" s="10"/>
     </row>
-    <row r="248" spans="1:23" ht="28.5" thickBot="1">
+    <row r="248" spans="1:23" ht="43.5" thickBot="1">
       <c r="A248" s="20">
         <v>31.024999999999999</v>
       </c>
@@ -16893,7 +16893,7 @@
       <c r="V248" s="10"/>
       <c r="W248" s="10"/>
     </row>
-    <row r="249" spans="1:23" ht="28.5" thickBot="1">
+    <row r="249" spans="1:23" ht="29.25" thickBot="1">
       <c r="A249" s="20">
         <v>31.015000000000001</v>
       </c>
@@ -16952,7 +16952,7 @@
       <c r="V249" s="10"/>
       <c r="W249" s="10"/>
     </row>
-    <row r="250" spans="1:23" ht="28.5" thickBot="1">
+    <row r="250" spans="1:23" ht="29.25" thickBot="1">
       <c r="A250" s="20">
         <v>31.015999999999998</v>
       </c>
@@ -17011,7 +17011,7 @@
       <c r="V250" s="10"/>
       <c r="W250" s="10"/>
     </row>
-    <row r="251" spans="1:23" ht="15" thickBot="1">
+    <row r="251" spans="1:23" ht="15.75" thickBot="1">
       <c r="A251" s="20">
         <v>31.016999999999999</v>
       </c>
@@ -17070,7 +17070,7 @@
       <c r="V251" s="10"/>
       <c r="W251" s="10"/>
     </row>
-    <row r="252" spans="1:23" ht="15" thickBot="1">
+    <row r="252" spans="1:23" ht="15.75" thickBot="1">
       <c r="A252" s="20">
         <v>31.018000000000001</v>
       </c>
@@ -17129,7 +17129,7 @@
       <c r="V252" s="10"/>
       <c r="W252" s="10"/>
     </row>
-    <row r="253" spans="1:23" ht="15" thickBot="1">
+    <row r="253" spans="1:23" ht="15.75" thickBot="1">
       <c r="A253" s="20">
         <v>31.018999999999998</v>
       </c>
@@ -17188,7 +17188,7 @@
       <c r="V253" s="10"/>
       <c r="W253" s="10"/>
     </row>
-    <row r="254" spans="1:23" ht="15" thickBot="1">
+    <row r="254" spans="1:23" ht="15.75" thickBot="1">
       <c r="A254" s="20">
         <v>31.02</v>
       </c>
@@ -17247,7 +17247,7 @@
       <c r="V254" s="10"/>
       <c r="W254" s="10"/>
     </row>
-    <row r="255" spans="1:23" ht="15" thickBot="1">
+    <row r="255" spans="1:23" ht="15.75" thickBot="1">
       <c r="A255" s="20">
         <v>31.007000000000001</v>
       </c>
@@ -17306,7 +17306,7 @@
       <c r="V255" s="10"/>
       <c r="W255" s="10"/>
     </row>
-    <row r="256" spans="1:23" ht="28.5" thickBot="1">
+    <row r="256" spans="1:23" ht="29.25" thickBot="1">
       <c r="A256" s="20">
         <v>31.007999999999999</v>
       </c>
@@ -17365,7 +17365,7 @@
       <c r="V256" s="10"/>
       <c r="W256" s="10"/>
     </row>
-    <row r="257" spans="1:23" ht="15" thickBot="1">
+    <row r="257" spans="1:23" ht="15.75" thickBot="1">
       <c r="A257" s="20">
         <v>31.009</v>
       </c>
@@ -17424,7 +17424,7 @@
       <c r="V257" s="10"/>
       <c r="W257" s="10"/>
     </row>
-    <row r="258" spans="1:23" ht="28.5" thickBot="1">
+    <row r="258" spans="1:23" ht="29.25" thickBot="1">
       <c r="A258" s="20">
         <v>31.01</v>
       </c>
@@ -17483,7 +17483,7 @@
       <c r="V258" s="10"/>
       <c r="W258" s="10"/>
     </row>
-    <row r="259" spans="1:23" ht="15" thickBot="1">
+    <row r="259" spans="1:23" ht="15.75" thickBot="1">
       <c r="A259" s="19">
         <v>32</v>
       </c>
@@ -17514,7 +17514,7 @@
       <c r="V259" s="10"/>
       <c r="W259" s="10"/>
     </row>
-    <row r="260" spans="1:23" ht="28.5" thickBot="1">
+    <row r="260" spans="1:23" ht="29.25" thickBot="1">
       <c r="A260" s="20">
         <v>32.011000000000003</v>
       </c>
@@ -17573,7 +17573,7 @@
       <c r="V260" s="10"/>
       <c r="W260" s="10"/>
     </row>
-    <row r="261" spans="1:23" ht="28.5" thickBot="1">
+    <row r="261" spans="1:23" ht="29.25" thickBot="1">
       <c r="A261" s="20">
         <v>32.005000000000003</v>
       </c>
@@ -17632,7 +17632,7 @@
       <c r="V261" s="10"/>
       <c r="W261" s="10"/>
     </row>
-    <row r="262" spans="1:23" ht="28.5" thickBot="1">
+    <row r="262" spans="1:23" ht="29.25" thickBot="1">
       <c r="A262" s="20">
         <v>32.006</v>
       </c>
@@ -17691,7 +17691,7 @@
       <c r="V262" s="10"/>
       <c r="W262" s="10"/>
     </row>
-    <row r="263" spans="1:23" ht="28.5" thickBot="1">
+    <row r="263" spans="1:23" ht="29.25" thickBot="1">
       <c r="A263" s="20">
         <v>32.006999999999998</v>
       </c>
@@ -17750,7 +17750,7 @@
       <c r="V263" s="10"/>
       <c r="W263" s="10"/>
     </row>
-    <row r="264" spans="1:23" ht="28.5" thickBot="1">
+    <row r="264" spans="1:23" ht="29.25" thickBot="1">
       <c r="A264" s="20">
         <v>32.012</v>
       </c>
@@ -17809,7 +17809,7 @@
       <c r="V264" s="10"/>
       <c r="W264" s="10"/>
     </row>
-    <row r="265" spans="1:23" ht="28.5" thickBot="1">
+    <row r="265" spans="1:23" ht="29.25" thickBot="1">
       <c r="A265" s="20">
         <v>32.000999999999998</v>
       </c>
@@ -17868,7 +17868,7 @@
       <c r="V265" s="10"/>
       <c r="W265" s="10"/>
     </row>
-    <row r="266" spans="1:23" ht="28.5" thickBot="1">
+    <row r="266" spans="1:23" ht="29.25" thickBot="1">
       <c r="A266" s="20">
         <v>32.002000000000002</v>
       </c>
@@ -17927,7 +17927,7 @@
       <c r="V266" s="10"/>
       <c r="W266" s="10"/>
     </row>
-    <row r="267" spans="1:23" ht="28.5" thickBot="1">
+    <row r="267" spans="1:23" ht="29.25" thickBot="1">
       <c r="A267" s="20">
         <v>32.003</v>
       </c>
@@ -17986,7 +17986,7 @@
       <c r="V267" s="10"/>
       <c r="W267" s="10"/>
     </row>
-    <row r="268" spans="1:23" ht="28.5" thickBot="1">
+    <row r="268" spans="1:23" ht="29.25" thickBot="1">
       <c r="A268" s="20">
         <v>32.003999999999998</v>
       </c>
@@ -18045,7 +18045,7 @@
       <c r="V268" s="10"/>
       <c r="W268" s="10"/>
     </row>
-    <row r="269" spans="1:23" ht="28.5" thickBot="1">
+    <row r="269" spans="1:23" ht="29.25" thickBot="1">
       <c r="A269" s="20">
         <v>32.008000000000003</v>
       </c>
@@ -18104,7 +18104,7 @@
       <c r="V269" s="10"/>
       <c r="W269" s="10"/>
     </row>
-    <row r="270" spans="1:23" ht="28.5" thickBot="1">
+    <row r="270" spans="1:23" ht="29.25" thickBot="1">
       <c r="A270" s="20">
         <v>32.009</v>
       </c>
@@ -18163,7 +18163,7 @@
       <c r="V270" s="10"/>
       <c r="W270" s="10"/>
     </row>
-    <row r="271" spans="1:23" ht="28.5" thickBot="1">
+    <row r="271" spans="1:23" ht="29.25" thickBot="1">
       <c r="A271" s="20">
         <v>32.01</v>
       </c>
@@ -18222,7 +18222,7 @@
       <c r="V271" s="10"/>
       <c r="W271" s="10"/>
     </row>
-    <row r="272" spans="1:23" ht="15" thickBot="1">
+    <row r="272" spans="1:23" ht="15.75" thickBot="1">
       <c r="A272" s="19">
         <v>33</v>
       </c>
@@ -18253,7 +18253,7 @@
       <c r="V272" s="10"/>
       <c r="W272" s="10"/>
     </row>
-    <row r="273" spans="1:23" ht="28.5" thickBot="1">
+    <row r="273" spans="1:23" ht="29.25" thickBot="1">
       <c r="A273" s="20">
         <v>33.000999999999998</v>
       </c>
@@ -18312,7 +18312,7 @@
       <c r="V273" s="10"/>
       <c r="W273" s="10"/>
     </row>
-    <row r="274" spans="1:23" ht="28.5" thickBot="1">
+    <row r="274" spans="1:23" ht="29.25" thickBot="1">
       <c r="A274" s="20">
         <v>33.002000000000002</v>
       </c>
@@ -18371,7 +18371,7 @@
       <c r="V274" s="10"/>
       <c r="W274" s="10"/>
     </row>
-    <row r="275" spans="1:23" ht="28.5" thickBot="1">
+    <row r="275" spans="1:23" ht="29.25" thickBot="1">
       <c r="A275" s="20">
         <v>33.003</v>
       </c>
@@ -18430,7 +18430,7 @@
       <c r="V275" s="10"/>
       <c r="W275" s="10"/>
     </row>
-    <row r="276" spans="1:23" ht="15" thickBot="1">
+    <row r="276" spans="1:23" ht="15.75" thickBot="1">
       <c r="A276" s="19">
         <v>34</v>
       </c>
@@ -18461,7 +18461,7 @@
       <c r="V276" s="10"/>
       <c r="W276" s="10"/>
     </row>
-    <row r="277" spans="1:23" ht="15" thickBot="1">
+    <row r="277" spans="1:23" ht="15.75" thickBot="1">
       <c r="A277" s="20">
         <v>34.000999999999998</v>
       </c>
@@ -18520,7 +18520,7 @@
       <c r="V277" s="10"/>
       <c r="W277" s="10"/>
     </row>
-    <row r="278" spans="1:23" ht="15" thickBot="1">
+    <row r="278" spans="1:23" ht="15.75" thickBot="1">
       <c r="A278" s="20">
         <v>34.002000000000002</v>
       </c>
@@ -18579,7 +18579,7 @@
       <c r="V278" s="10"/>
       <c r="W278" s="10"/>
     </row>
-    <row r="279" spans="1:23" ht="15" thickBot="1">
+    <row r="279" spans="1:23" ht="15.75" thickBot="1">
       <c r="A279" s="20">
         <v>34.024000000000001</v>
       </c>
@@ -18638,7 +18638,7 @@
       <c r="V279" s="10"/>
       <c r="W279" s="10"/>
     </row>
-    <row r="280" spans="1:23" ht="15" thickBot="1">
+    <row r="280" spans="1:23" ht="15.75" thickBot="1">
       <c r="A280" s="20">
         <v>34.024999999999999</v>
       </c>
@@ -18697,7 +18697,7 @@
       <c r="V280" s="10"/>
       <c r="W280" s="10"/>
     </row>
-    <row r="281" spans="1:23" ht="15" thickBot="1">
+    <row r="281" spans="1:23" ht="15.75" thickBot="1">
       <c r="A281" s="20">
         <v>34.026000000000003</v>
       </c>
@@ -18756,7 +18756,7 @@
       <c r="V281" s="10"/>
       <c r="W281" s="10"/>
     </row>
-    <row r="282" spans="1:23" ht="15" thickBot="1">
+    <row r="282" spans="1:23" ht="15.75" thickBot="1">
       <c r="A282" s="20">
         <v>34.027000000000001</v>
       </c>
@@ -18815,7 +18815,7 @@
       <c r="V282" s="10"/>
       <c r="W282" s="10"/>
     </row>
-    <row r="283" spans="1:23" ht="15" thickBot="1">
+    <row r="283" spans="1:23" ht="15.75" thickBot="1">
       <c r="A283" s="19">
         <v>41</v>
       </c>
@@ -18848,7 +18848,7 @@
       <c r="V283" s="10"/>
       <c r="W283" s="10"/>
     </row>
-    <row r="284" spans="1:23" ht="15" thickBot="1">
+    <row r="284" spans="1:23" ht="15.75" thickBot="1">
       <c r="A284" s="20">
         <v>41.000999999999998</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="V284" s="10"/>
       <c r="W284" s="10"/>
     </row>
-    <row r="285" spans="1:23" ht="15" thickBot="1">
+    <row r="285" spans="1:23" ht="15.75" thickBot="1">
       <c r="A285" s="20">
         <v>41.002000000000002</v>
       </c>
@@ -18934,7 +18934,7 @@
       <c r="V285" s="10"/>
       <c r="W285" s="10"/>
     </row>
-    <row r="286" spans="1:23" ht="15" thickBot="1">
+    <row r="286" spans="1:23" ht="15.75" thickBot="1">
       <c r="A286" s="20">
         <v>41.003</v>
       </c>
@@ -18977,7 +18977,7 @@
       <c r="V286" s="10"/>
       <c r="W286" s="10"/>
     </row>
-    <row r="287" spans="1:23" ht="15" thickBot="1">
+    <row r="287" spans="1:23" ht="15.75" thickBot="1">
       <c r="A287" s="20">
         <v>41.003999999999998</v>
       </c>
@@ -19020,7 +19020,7 @@
       <c r="V287" s="10"/>
       <c r="W287" s="10"/>
     </row>
-    <row r="288" spans="1:23" ht="15" thickBot="1">
+    <row r="288" spans="1:23" ht="15.75" thickBot="1">
       <c r="A288" s="20">
         <v>41.005000000000003</v>
       </c>
@@ -19063,7 +19063,7 @@
       <c r="V288" s="10"/>
       <c r="W288" s="10"/>
     </row>
-    <row r="289" spans="1:23" ht="15" thickBot="1">
+    <row r="289" spans="1:23" ht="15.75" thickBot="1">
       <c r="A289" s="20">
         <v>41.006</v>
       </c>
@@ -19106,7 +19106,7 @@
       <c r="V289" s="10"/>
       <c r="W289" s="10"/>
     </row>
-    <row r="290" spans="1:23" ht="15" thickBot="1">
+    <row r="290" spans="1:23" ht="15.75" thickBot="1">
       <c r="A290" s="20">
         <v>41.01</v>
       </c>
@@ -19149,7 +19149,7 @@
       <c r="V290" s="10"/>
       <c r="W290" s="10"/>
     </row>
-    <row r="291" spans="1:23" ht="15" thickBot="1">
+    <row r="291" spans="1:23" ht="15.75" thickBot="1">
       <c r="A291" s="20">
         <v>41.006999999999998</v>
       </c>
@@ -19192,7 +19192,7 @@
       <c r="V291" s="10"/>
       <c r="W291" s="10"/>
     </row>
-    <row r="292" spans="1:23" ht="15" thickBot="1">
+    <row r="292" spans="1:23" ht="15.75" thickBot="1">
       <c r="A292" s="20">
         <v>41.011000000000003</v>
       </c>
@@ -19235,7 +19235,7 @@
       <c r="V292" s="10"/>
       <c r="W292" s="10"/>
     </row>
-    <row r="293" spans="1:23" ht="15" thickBot="1">
+    <row r="293" spans="1:23" ht="15.75" thickBot="1">
       <c r="A293" s="20">
         <v>41.008000000000003</v>
       </c>
@@ -19278,7 +19278,7 @@
       <c r="V293" s="10"/>
       <c r="W293" s="10"/>
     </row>
-    <row r="294" spans="1:23" ht="15" thickBot="1">
+    <row r="294" spans="1:23" ht="15.75" thickBot="1">
       <c r="A294" s="20">
         <v>41.012</v>
       </c>
@@ -19321,7 +19321,7 @@
       <c r="V294" s="10"/>
       <c r="W294" s="10"/>
     </row>
-    <row r="295" spans="1:23" ht="15" thickBot="1">
+    <row r="295" spans="1:23" ht="15.75" thickBot="1">
       <c r="A295" s="20">
         <v>41.009</v>
       </c>
@@ -19364,7 +19364,7 @@
       <c r="V295" s="10"/>
       <c r="W295" s="10"/>
     </row>
-    <row r="296" spans="1:23" ht="15" thickBot="1">
+    <row r="296" spans="1:23" ht="15.75" thickBot="1">
       <c r="A296" s="19">
         <v>42</v>
       </c>
@@ -19395,7 +19395,7 @@
       <c r="V296" s="10"/>
       <c r="W296" s="10"/>
     </row>
-    <row r="297" spans="1:23" ht="15" thickBot="1">
+    <row r="297" spans="1:23" ht="15.75" thickBot="1">
       <c r="A297" s="20">
         <v>42.000999999999998</v>
       </c>
@@ -19438,7 +19438,7 @@
       <c r="V297" s="10"/>
       <c r="W297" s="10"/>
     </row>
-    <row r="298" spans="1:23" ht="15" thickBot="1">
+    <row r="298" spans="1:23" ht="15.75" thickBot="1">
       <c r="A298" s="20">
         <v>42.002000000000002</v>
       </c>
@@ -19481,7 +19481,7 @@
       <c r="V298" s="10"/>
       <c r="W298" s="10"/>
     </row>
-    <row r="299" spans="1:23" ht="15" thickBot="1">
+    <row r="299" spans="1:23" ht="15.75" thickBot="1">
       <c r="A299" s="20">
         <v>42.003</v>
       </c>
@@ -19524,7 +19524,7 @@
       <c r="V299" s="10"/>
       <c r="W299" s="10"/>
     </row>
-    <row r="300" spans="1:23" ht="15" thickBot="1">
+    <row r="300" spans="1:23" ht="15.75" thickBot="1">
       <c r="A300" s="20">
         <v>42.003999999999998</v>
       </c>
@@ -19567,7 +19567,7 @@
       <c r="V300" s="10"/>
       <c r="W300" s="10"/>
     </row>
-    <row r="301" spans="1:23" ht="28.5" thickBot="1">
+    <row r="301" spans="1:23" ht="29.25" thickBot="1">
       <c r="A301" s="20">
         <v>42.005000000000003</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="V301" s="10"/>
       <c r="W301" s="10"/>
     </row>
-    <row r="302" spans="1:23" ht="28.5" thickBot="1">
+    <row r="302" spans="1:23" ht="29.25" thickBot="1">
       <c r="A302" s="20">
         <v>42.006</v>
       </c>
@@ -19653,7 +19653,7 @@
       <c r="V302" s="10"/>
       <c r="W302" s="10"/>
     </row>
-    <row r="303" spans="1:23" ht="28.5" thickBot="1">
+    <row r="303" spans="1:23" ht="29.25" thickBot="1">
       <c r="A303" s="20">
         <v>42.006999999999998</v>
       </c>
@@ -19696,7 +19696,7 @@
       <c r="V303" s="10"/>
       <c r="W303" s="10"/>
     </row>
-    <row r="304" spans="1:23" ht="28.5" thickBot="1">
+    <row r="304" spans="1:23" ht="29.25" thickBot="1">
       <c r="A304" s="20">
         <v>42.008000000000003</v>
       </c>
@@ -19739,7 +19739,7 @@
       <c r="V304" s="10"/>
       <c r="W304" s="10"/>
     </row>
-    <row r="305" spans="1:23" ht="15" thickBot="1">
+    <row r="305" spans="1:23" ht="15.75" thickBot="1">
       <c r="A305" s="20">
         <v>42.009</v>
       </c>
@@ -19782,7 +19782,7 @@
       <c r="V305" s="10"/>
       <c r="W305" s="10"/>
     </row>
-    <row r="306" spans="1:23" ht="15" thickBot="1">
+    <row r="306" spans="1:23" ht="15.75" thickBot="1">
       <c r="A306" s="20">
         <v>42.01</v>
       </c>
@@ -19825,7 +19825,7 @@
       <c r="V306" s="10"/>
       <c r="W306" s="10"/>
     </row>
-    <row r="307" spans="1:23" ht="15" thickBot="1">
+    <row r="307" spans="1:23" ht="15.75" thickBot="1">
       <c r="A307" s="20">
         <v>42.011000000000003</v>
       </c>
@@ -19868,7 +19868,7 @@
       <c r="V307" s="10"/>
       <c r="W307" s="10"/>
     </row>
-    <row r="308" spans="1:23" ht="15" thickBot="1">
+    <row r="308" spans="1:23" ht="29.25" thickBot="1">
       <c r="A308" s="20">
         <v>42.012</v>
       </c>
@@ -19911,7 +19911,7 @@
       <c r="V308" s="10"/>
       <c r="W308" s="10"/>
     </row>
-    <row r="309" spans="1:23" ht="15" thickBot="1">
+    <row r="309" spans="1:23" ht="15.75" thickBot="1">
       <c r="A309" s="20">
         <v>42.012999999999998</v>
       </c>
@@ -19954,7 +19954,7 @@
       <c r="V309" s="10"/>
       <c r="W309" s="10"/>
     </row>
-    <row r="310" spans="1:23" ht="15" thickBot="1">
+    <row r="310" spans="1:23" ht="29.25" thickBot="1">
       <c r="A310" s="20">
         <v>42.014000000000003</v>
       </c>
@@ -19997,7 +19997,7 @@
       <c r="V310" s="10"/>
       <c r="W310" s="10"/>
     </row>
-    <row r="311" spans="1:23" ht="28.5" thickBot="1">
+    <row r="311" spans="1:23" ht="29.25" thickBot="1">
       <c r="A311" s="20">
         <v>42.015000000000001</v>
       </c>
@@ -20040,7 +20040,7 @@
       <c r="V311" s="10"/>
       <c r="W311" s="10"/>
     </row>
-    <row r="312" spans="1:23" ht="15" thickBot="1">
+    <row r="312" spans="1:23" ht="15.75" thickBot="1">
       <c r="A312" s="20">
         <v>42.015999999999998</v>
       </c>
@@ -20083,7 +20083,7 @@
       <c r="V312" s="10"/>
       <c r="W312" s="10"/>
     </row>
-    <row r="313" spans="1:23" ht="28.5" thickBot="1">
+    <row r="313" spans="1:23" ht="43.5" thickBot="1">
       <c r="A313" s="20">
         <v>42.017000000000003</v>
       </c>
@@ -20126,7 +20126,7 @@
       <c r="V313" s="10"/>
       <c r="W313" s="10"/>
     </row>
-    <row r="314" spans="1:23" ht="15" thickBot="1">
+    <row r="314" spans="1:23" ht="15.75" thickBot="1">
       <c r="A314" s="19">
         <v>43</v>
       </c>
@@ -20159,7 +20159,7 @@
       <c r="V314" s="10"/>
       <c r="W314" s="10"/>
     </row>
-    <row r="315" spans="1:23" ht="15" thickBot="1">
+    <row r="315" spans="1:23" ht="15.75" thickBot="1">
       <c r="A315" s="20">
         <v>43.000999999999998</v>
       </c>
@@ -20202,7 +20202,7 @@
       <c r="V315" s="10"/>
       <c r="W315" s="10"/>
     </row>
-    <row r="316" spans="1:23" ht="15" thickBot="1">
+    <row r="316" spans="1:23" ht="15.75" thickBot="1">
       <c r="A316" s="20">
         <v>43.002000000000002</v>
       </c>
@@ -20245,7 +20245,7 @@
       <c r="V316" s="10"/>
       <c r="W316" s="10"/>
     </row>
-    <row r="317" spans="1:23" ht="15" thickBot="1">
+    <row r="317" spans="1:23" ht="15.75" thickBot="1">
       <c r="A317" s="20">
         <v>43.003</v>
       </c>
@@ -20288,7 +20288,7 @@
       <c r="V317" s="10"/>
       <c r="W317" s="10"/>
     </row>
-    <row r="318" spans="1:23" ht="15" thickBot="1">
+    <row r="318" spans="1:23" ht="15.75" thickBot="1">
       <c r="A318" s="20">
         <v>43.003999999999998</v>
       </c>
@@ -20331,7 +20331,7 @@
       <c r="V318" s="10"/>
       <c r="W318" s="10"/>
     </row>
-    <row r="319" spans="1:23" ht="15" thickBot="1">
+    <row r="319" spans="1:23" ht="15.75" thickBot="1">
       <c r="A319" s="20">
         <v>43.005000000000003</v>
       </c>
@@ -20374,7 +20374,7 @@
       <c r="V319" s="10"/>
       <c r="W319" s="10"/>
     </row>
-    <row r="320" spans="1:23" ht="15" thickBot="1">
+    <row r="320" spans="1:23" ht="15.75" thickBot="1">
       <c r="A320" s="20">
         <v>43.006</v>
       </c>
@@ -20417,7 +20417,7 @@
       <c r="V320" s="10"/>
       <c r="W320" s="10"/>
     </row>
-    <row r="321" spans="1:23" ht="15" thickBot="1">
+    <row r="321" spans="1:23" ht="15.75" thickBot="1">
       <c r="A321" s="20">
         <v>43.01</v>
       </c>
@@ -20460,7 +20460,7 @@
       <c r="V321" s="10"/>
       <c r="W321" s="10"/>
     </row>
-    <row r="322" spans="1:23" ht="15" thickBot="1">
+    <row r="322" spans="1:23" ht="15.75" thickBot="1">
       <c r="A322" s="20">
         <v>43.006999999999998</v>
       </c>
@@ -20503,7 +20503,7 @@
       <c r="V322" s="10"/>
       <c r="W322" s="10"/>
     </row>
-    <row r="323" spans="1:23" ht="28.5" thickBot="1">
+    <row r="323" spans="1:23" ht="29.25" thickBot="1">
       <c r="A323" s="20">
         <v>43.011000000000003</v>
       </c>
@@ -20546,7 +20546,7 @@
       <c r="V323" s="10"/>
       <c r="W323" s="10"/>
     </row>
-    <row r="324" spans="1:23" ht="15" thickBot="1">
+    <row r="324" spans="1:23" ht="15.75" thickBot="1">
       <c r="A324" s="20">
         <v>43.008000000000003</v>
       </c>
@@ -20589,7 +20589,7 @@
       <c r="V324" s="10"/>
       <c r="W324" s="10"/>
     </row>
-    <row r="325" spans="1:23" ht="15" thickBot="1">
+    <row r="325" spans="1:23" ht="15.75" thickBot="1">
       <c r="A325" s="20">
         <v>43.012</v>
       </c>
@@ -20632,7 +20632,7 @@
       <c r="V325" s="10"/>
       <c r="W325" s="10"/>
     </row>
-    <row r="326" spans="1:23" ht="15" thickBot="1">
+    <row r="326" spans="1:23" ht="15.75" thickBot="1">
       <c r="A326" s="20">
         <v>43.009</v>
       </c>
@@ -20675,7 +20675,7 @@
       <c r="V326" s="10"/>
       <c r="W326" s="10"/>
     </row>
-    <row r="327" spans="1:23" ht="28.5" thickBot="1">
+    <row r="327" spans="1:23" ht="30.75" thickBot="1">
       <c r="A327" s="19">
         <v>44</v>
       </c>
@@ -20706,7 +20706,7 @@
       <c r="V327" s="10"/>
       <c r="W327" s="10"/>
     </row>
-    <row r="328" spans="1:23" ht="15" thickBot="1">
+    <row r="328" spans="1:23" ht="15.75" thickBot="1">
       <c r="C328" s="12"/>
       <c r="D328" s="10"/>
       <c r="E328" s="10"/>
@@ -20729,7 +20729,7 @@
       <c r="V328" s="10"/>
       <c r="W328" s="10"/>
     </row>
-    <row r="329" spans="1:23" ht="28.5" thickBot="1">
+    <row r="329" spans="1:23" ht="29.25" thickBot="1">
       <c r="A329" s="20">
         <v>44.000999999999998</v>
       </c>
@@ -20772,7 +20772,7 @@
       <c r="V329" s="10"/>
       <c r="W329" s="10"/>
     </row>
-    <row r="330" spans="1:23" ht="28.5" thickBot="1">
+    <row r="330" spans="1:23" ht="29.25" thickBot="1">
       <c r="A330" s="20">
         <v>44.002000000000002</v>
       </c>
@@ -20815,7 +20815,7 @@
       <c r="V330" s="10"/>
       <c r="W330" s="10"/>
     </row>
-    <row r="331" spans="1:23" ht="28.5" thickBot="1">
+    <row r="331" spans="1:23" ht="29.25" thickBot="1">
       <c r="A331" s="20">
         <v>44.003</v>
       </c>
@@ -20858,7 +20858,7 @@
       <c r="V331" s="10"/>
       <c r="W331" s="10"/>
     </row>
-    <row r="332" spans="1:23" ht="15" thickBot="1">
+    <row r="332" spans="1:23" ht="15.75" thickBot="1">
       <c r="A332" s="20">
         <v>44.003999999999998</v>
       </c>
@@ -20901,7 +20901,7 @@
       <c r="V332" s="10"/>
       <c r="W332" s="10"/>
     </row>
-    <row r="333" spans="1:23" ht="28.5" thickBot="1">
+    <row r="333" spans="1:23" ht="29.25" thickBot="1">
       <c r="A333" s="20">
         <v>44.005000000000003</v>
       </c>
@@ -20944,7 +20944,7 @@
       <c r="V333" s="10"/>
       <c r="W333" s="10"/>
     </row>
-    <row r="334" spans="1:23" ht="15" thickBot="1">
+    <row r="334" spans="1:23" ht="15.75" thickBot="1">
       <c r="A334" s="20">
         <v>44.006</v>
       </c>
@@ -20987,7 +20987,7 @@
       <c r="V334" s="10"/>
       <c r="W334" s="10"/>
     </row>
-    <row r="335" spans="1:23" ht="28.5" thickBot="1">
+    <row r="335" spans="1:23" ht="29.25" thickBot="1">
       <c r="A335" s="20">
         <v>44.006999999999998</v>
       </c>
@@ -21030,7 +21030,7 @@
       <c r="V335" s="10"/>
       <c r="W335" s="10"/>
     </row>
-    <row r="336" spans="1:23" ht="28.5" thickBot="1">
+    <row r="336" spans="1:23" ht="29.25" thickBot="1">
       <c r="A336" s="20">
         <v>44.008000000000003</v>
       </c>
@@ -21073,7 +21073,7 @@
       <c r="V336" s="10"/>
       <c r="W336" s="10"/>
     </row>
-    <row r="337" spans="1:23" ht="42.5" thickBot="1">
+    <row r="337" spans="1:23" ht="43.5" thickBot="1">
       <c r="B337" s="20" t="s">
         <v>473</v>
       </c>
@@ -21101,7 +21101,7 @@
       <c r="V337" s="10"/>
       <c r="W337" s="10"/>
     </row>
-    <row r="338" spans="1:23" ht="15" thickBot="1">
+    <row r="338" spans="1:23" ht="15.75" thickBot="1">
       <c r="A338" s="19">
         <v>45</v>
       </c>
@@ -21132,7 +21132,7 @@
       <c r="V338" s="10"/>
       <c r="W338" s="10"/>
     </row>
-    <row r="339" spans="1:23" ht="15" thickBot="1">
+    <row r="339" spans="1:23" ht="15.75" thickBot="1">
       <c r="A339" s="20">
         <v>45.000999999999998</v>
       </c>
@@ -21175,7 +21175,7 @@
       <c r="V339" s="10"/>
       <c r="W339" s="10"/>
     </row>
-    <row r="340" spans="1:23" ht="28.5" thickBot="1">
+    <row r="340" spans="1:23" ht="29.25" thickBot="1">
       <c r="A340" s="20">
         <v>45.002000000000002</v>
       </c>
@@ -21218,7 +21218,7 @@
       <c r="V340" s="10"/>
       <c r="W340" s="10"/>
     </row>
-    <row r="341" spans="1:23" ht="15" thickBot="1">
+    <row r="341" spans="1:23" ht="15.75" thickBot="1">
       <c r="A341" s="20">
         <v>45.023000000000003</v>
       </c>
@@ -21261,7 +21261,7 @@
       <c r="V341" s="10"/>
       <c r="W341" s="10"/>
     </row>
-    <row r="342" spans="1:23" ht="15" thickBot="1">
+    <row r="342" spans="1:23" ht="15.75" thickBot="1">
       <c r="A342" s="20">
         <v>45.003</v>
       </c>
@@ -21304,7 +21304,7 @@
       <c r="V342" s="10"/>
       <c r="W342" s="10"/>
     </row>
-    <row r="343" spans="1:23" ht="15" thickBot="1">
+    <row r="343" spans="1:23" ht="15.75" thickBot="1">
       <c r="A343" s="20">
         <v>45.003999999999998</v>
       </c>
@@ -21347,7 +21347,7 @@
       <c r="V343" s="10"/>
       <c r="W343" s="10"/>
     </row>
-    <row r="344" spans="1:23" ht="15" thickBot="1">
+    <row r="344" spans="1:23" ht="15.75" thickBot="1">
       <c r="A344" s="20">
         <v>45.005000000000003</v>
       </c>
@@ -21390,7 +21390,7 @@
       <c r="V344" s="10"/>
       <c r="W344" s="10"/>
     </row>
-    <row r="345" spans="1:23" ht="15" thickBot="1">
+    <row r="345" spans="1:23" ht="15.75" thickBot="1">
       <c r="A345" s="20">
         <v>45.006</v>
       </c>
@@ -21433,7 +21433,7 @@
       <c r="V345" s="10"/>
       <c r="W345" s="10"/>
     </row>
-    <row r="346" spans="1:23" ht="15" thickBot="1">
+    <row r="346" spans="1:23" ht="29.25" thickBot="1">
       <c r="A346" s="20">
         <v>45.006999999999998</v>
       </c>
@@ -21476,7 +21476,7 @@
       <c r="V346" s="10"/>
       <c r="W346" s="10"/>
     </row>
-    <row r="347" spans="1:23" ht="15" thickBot="1">
+    <row r="347" spans="1:23" ht="15.75" thickBot="1">
       <c r="A347" s="20">
         <v>45.008000000000003</v>
       </c>
@@ -21519,7 +21519,7 @@
       <c r="V347" s="10"/>
       <c r="W347" s="10"/>
     </row>
-    <row r="348" spans="1:23" ht="15" thickBot="1">
+    <row r="348" spans="1:23" ht="29.25" thickBot="1">
       <c r="A348" s="20">
         <v>45.009</v>
       </c>
@@ -21562,7 +21562,7 @@
       <c r="V348" s="10"/>
       <c r="W348" s="10"/>
     </row>
-    <row r="349" spans="1:23" ht="28.5" thickBot="1">
+    <row r="349" spans="1:23" ht="29.25" thickBot="1">
       <c r="A349" s="20">
         <v>45.01</v>
       </c>
@@ -21605,7 +21605,7 @@
       <c r="V349" s="10"/>
       <c r="W349" s="10"/>
     </row>
-    <row r="350" spans="1:23" ht="15" thickBot="1">
+    <row r="350" spans="1:23" ht="15.75" thickBot="1">
       <c r="A350" s="20">
         <v>45.011000000000003</v>
       </c>
@@ -21648,7 +21648,7 @@
       <c r="V350" s="10"/>
       <c r="W350" s="10"/>
     </row>
-    <row r="351" spans="1:23" ht="15" thickBot="1">
+    <row r="351" spans="1:23" ht="15.75" thickBot="1">
       <c r="A351" s="20">
         <v>45.012</v>
       </c>
@@ -21691,7 +21691,7 @@
       <c r="V351" s="10"/>
       <c r="W351" s="10"/>
     </row>
-    <row r="352" spans="1:23" ht="15" thickBot="1">
+    <row r="352" spans="1:23" ht="15.75" thickBot="1">
       <c r="A352" s="20">
         <v>45.012999999999998</v>
       </c>
@@ -21734,7 +21734,7 @@
       <c r="V352" s="10"/>
       <c r="W352" s="10"/>
     </row>
-    <row r="353" spans="1:23" ht="15" thickBot="1">
+    <row r="353" spans="1:23" ht="15.75" thickBot="1">
       <c r="A353" s="20">
         <v>45.014000000000003</v>
       </c>
@@ -21777,7 +21777,7 @@
       <c r="V353" s="10"/>
       <c r="W353" s="10"/>
     </row>
-    <row r="354" spans="1:23" ht="15" thickBot="1">
+    <row r="354" spans="1:23" ht="15.75" thickBot="1">
       <c r="A354" s="20">
         <v>45.015000000000001</v>
       </c>
@@ -21820,7 +21820,7 @@
       <c r="V354" s="10"/>
       <c r="W354" s="10"/>
     </row>
-    <row r="355" spans="1:23" ht="15" thickBot="1">
+    <row r="355" spans="1:23" ht="15.75" thickBot="1">
       <c r="A355" s="20">
         <v>45.015999999999998</v>
       </c>
@@ -21863,7 +21863,7 @@
       <c r="V355" s="10"/>
       <c r="W355" s="10"/>
     </row>
-    <row r="356" spans="1:23" ht="15" thickBot="1">
+    <row r="356" spans="1:23" ht="15.75" thickBot="1">
       <c r="A356" s="20">
         <v>45.017000000000003</v>
       </c>
@@ -21906,7 +21906,7 @@
       <c r="V356" s="10"/>
       <c r="W356" s="10"/>
     </row>
-    <row r="357" spans="1:23" ht="15" thickBot="1">
+    <row r="357" spans="1:23" ht="15.75" thickBot="1">
       <c r="A357" s="20">
         <v>45.018000000000001</v>
       </c>
@@ -21949,7 +21949,7 @@
       <c r="V357" s="10"/>
       <c r="W357" s="10"/>
     </row>
-    <row r="358" spans="1:23" ht="15" thickBot="1">
+    <row r="358" spans="1:23" ht="15.75" thickBot="1">
       <c r="A358" s="20">
         <v>45.018999999999998</v>
       </c>
@@ -21992,7 +21992,7 @@
       <c r="V358" s="10"/>
       <c r="W358" s="10"/>
     </row>
-    <row r="359" spans="1:23" ht="28.5" thickBot="1">
+    <row r="359" spans="1:23" ht="29.25" thickBot="1">
       <c r="A359" s="20">
         <v>45.021999999999998</v>
       </c>
@@ -22035,7 +22035,7 @@
       <c r="V359" s="10"/>
       <c r="W359" s="10"/>
     </row>
-    <row r="360" spans="1:23" ht="15" thickBot="1">
+    <row r="360" spans="1:23" ht="15.75" thickBot="1">
       <c r="A360" s="20">
         <v>45.02</v>
       </c>
@@ -22078,7 +22078,7 @@
       <c r="V360" s="10"/>
       <c r="W360" s="10"/>
     </row>
-    <row r="361" spans="1:23" ht="15" thickBot="1">
+    <row r="361" spans="1:23" ht="15.75" thickBot="1">
       <c r="A361" s="20">
         <v>45.021000000000001</v>
       </c>
@@ -22121,7 +22121,7 @@
       <c r="V361" s="10"/>
       <c r="W361" s="10"/>
     </row>
-    <row r="362" spans="1:23" ht="28.5" thickBot="1">
+    <row r="362" spans="1:23" ht="29.25" thickBot="1">
       <c r="B362" s="21" t="s">
         <v>475</v>
       </c>
@@ -22149,7 +22149,7 @@
       <c r="V362" s="10"/>
       <c r="W362" s="10"/>
     </row>
-    <row r="363" spans="1:23" ht="28.5" thickBot="1">
+    <row r="363" spans="1:23" ht="30.75" thickBot="1">
       <c r="A363" s="22">
         <v>46</v>
       </c>
@@ -22180,7 +22180,7 @@
       <c r="V363" s="10"/>
       <c r="W363" s="10"/>
     </row>
-    <row r="364" spans="1:23" ht="15" thickBot="1">
+    <row r="364" spans="1:23" ht="15.75" thickBot="1">
       <c r="A364" s="20">
         <v>46.000999999999998</v>
       </c>
@@ -22223,7 +22223,7 @@
       <c r="V364" s="10"/>
       <c r="W364" s="10"/>
     </row>
-    <row r="365" spans="1:23" ht="15" thickBot="1">
+    <row r="365" spans="1:23" ht="15.75" thickBot="1">
       <c r="A365" s="20">
         <v>46.002000000000002</v>
       </c>
@@ -22266,7 +22266,7 @@
       <c r="V365" s="10"/>
       <c r="W365" s="10"/>
     </row>
-    <row r="366" spans="1:23" ht="15" thickBot="1">
+    <row r="366" spans="1:23" ht="15.75" thickBot="1">
       <c r="A366" s="20">
         <v>46.003</v>
       </c>
@@ -22309,7 +22309,7 @@
       <c r="V366" s="10"/>
       <c r="W366" s="10"/>
     </row>
-    <row r="367" spans="1:23" ht="15" thickBot="1">
+    <row r="367" spans="1:23" ht="15.75" thickBot="1">
       <c r="A367" s="20">
         <v>46.003999999999998</v>
       </c>
@@ -22352,7 +22352,7 @@
       <c r="V367" s="10"/>
       <c r="W367" s="10"/>
     </row>
-    <row r="368" spans="1:23" ht="15" thickBot="1">
+    <row r="368" spans="1:23" ht="15.75" thickBot="1">
       <c r="A368" s="20">
         <v>46.005000000000003</v>
       </c>
@@ -22395,7 +22395,7 @@
       <c r="V368" s="10"/>
       <c r="W368" s="10"/>
     </row>
-    <row r="369" spans="1:23" ht="15" thickBot="1">
+    <row r="369" spans="1:23" ht="15.75" thickBot="1">
       <c r="A369" s="20">
         <v>46.006</v>
       </c>
@@ -22438,7 +22438,7 @@
       <c r="V369" s="10"/>
       <c r="W369" s="10"/>
     </row>
-    <row r="370" spans="1:23" ht="15" thickBot="1">
+    <row r="370" spans="1:23" ht="15.75" thickBot="1">
       <c r="A370" s="20">
         <v>46.006999999999998</v>
       </c>
@@ -22481,7 +22481,7 @@
       <c r="V370" s="10"/>
       <c r="W370" s="10"/>
     </row>
-    <row r="371" spans="1:23" ht="28.5" thickBot="1">
+    <row r="371" spans="1:23" ht="29.25" thickBot="1">
       <c r="A371" s="20">
         <v>46.008000000000003</v>
       </c>
@@ -22543,17 +22543,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="43.5">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="45">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>77</v>
@@ -22641,7 +22641,7 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -22670,7 +22670,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="9">
         <v>61</v>
       </c>
@@ -22697,7 +22697,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="5" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A5" s="8">
         <v>61.003</v>
       </c>
@@ -22760,7 +22760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="8">
         <v>61.009</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="7" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A7" s="8">
         <v>61.005000000000003</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="8" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A8" s="8">
         <v>61.000999999999998</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A9" s="8">
         <v>61.002000000000002</v>
       </c>
@@ -23012,7 +23012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="10" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A10" s="8">
         <v>61.003999999999998</v>
       </c>
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="11" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A11" s="8">
         <v>61.006</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="12" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A12" s="8">
         <v>61.006999999999998</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="13" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A13" s="8">
         <v>61.008000000000003</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="14" spans="1:23" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="9">
         <v>62</v>
       </c>
@@ -23291,7 +23291,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="15" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A15" s="8">
         <v>62.000999999999998</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="16" spans="1:23" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A16" s="8">
         <v>62.014000000000003</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A17" s="8">
         <v>62.015000000000001</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A18" s="8">
         <v>62.002000000000002</v>
       </c>
@@ -23543,7 +23543,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A19" s="8">
         <v>62.011000000000003</v>
       </c>
@@ -23606,7 +23606,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A20" s="8">
         <v>62.012</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A21" s="8">
         <v>62.012999999999998</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A22" s="8">
         <v>62.003</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A23" s="8">
         <v>62.003999999999998</v>
       </c>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A24" s="8">
         <v>62.005000000000003</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A25" s="8">
         <v>62.006</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A26" s="8">
         <v>62.006999999999998</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A27" s="8">
         <v>62.015999999999998</v>
       </c>
@@ -24110,7 +24110,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="28" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A28" s="8">
         <v>62.017000000000003</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="29" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A29" s="8">
         <v>62.009</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="30" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A30" s="8">
         <v>62.008000000000003</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="31" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A31" s="8">
         <v>62.01</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="30.75" thickBot="1">
       <c r="A32" s="9">
         <v>63</v>
       </c>
@@ -24389,7 +24389,7 @@
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="33" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A33" s="8">
         <v>63.003</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="34" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A34" s="8">
         <v>63.000999999999998</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="35" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A35" s="8">
         <v>63.002000000000002</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="36" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A36" s="8">
         <v>63.003999999999998</v>
       </c>
@@ -24641,7 +24641,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="37" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A37" s="8">
         <v>63.005000000000003</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="38" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A38" s="8">
         <v>63.006</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="39" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A39" s="8">
         <v>63.006999999999998</v>
       </c>
@@ -24830,7 +24830,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="40" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A40" s="8">
         <v>63.008000000000003</v>
       </c>
@@ -24893,7 +24893,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="41" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A41" s="8">
         <v>63.014000000000003</v>
       </c>
@@ -24956,7 +24956,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="42" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A42" s="8">
         <v>63.009</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="43" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A43" s="8">
         <v>63.015999999999998</v>
       </c>
@@ -25082,7 +25082,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="44" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A44" s="8">
         <v>63.015000000000001</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="45" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A45" s="8">
         <v>63.01</v>
       </c>
@@ -25208,7 +25208,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="46" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A46" s="8">
         <v>63.011000000000003</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="47" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A47" s="8">
         <v>63.017000000000003</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="48" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A48" s="8">
         <v>63.012</v>
       </c>
@@ -25397,7 +25397,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="49" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A49" s="8">
         <v>63.012999999999998</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="50" spans="1:21" s="2" customFormat="1" ht="45.75" thickBot="1">
       <c r="A50" s="19">
         <v>64</v>
       </c>
@@ -25489,7 +25489,7 @@
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="51" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A51" s="20">
         <v>64.003</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="52" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A52" s="20">
         <v>64.001000000000005</v>
       </c>
@@ -25615,7 +25615,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="53" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A53" s="20">
         <v>64.001999999999995</v>
       </c>
@@ -25678,7 +25678,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="54" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A54" s="20">
         <v>64.004000000000005</v>
       </c>
@@ -25741,7 +25741,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="55" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A55" s="20">
         <v>64.004999999999995</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="56" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A56" s="20">
         <v>64.006</v>
       </c>
@@ -25867,7 +25867,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="57" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A57" s="20">
         <v>64.007000000000005</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="58" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A58" s="20">
         <v>64.007999999999996</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="59" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A59" s="20">
         <v>64.013999999999996</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="60" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A60" s="20">
         <v>64.009</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="61" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A61" s="20">
         <v>64.016000000000005</v>
       </c>
@@ -26182,7 +26182,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="2" customFormat="1" ht="28.5" thickBot="1">
+    <row r="62" spans="1:21" s="2" customFormat="1" ht="29.25" thickBot="1">
       <c r="A62" s="20">
         <v>64.015000000000001</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="63" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A63" s="20">
         <v>64.010000000000005</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="64" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A64" s="20">
         <v>64.010999999999996</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="65" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A65" s="20">
         <v>64.016999999999996</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="66" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A66" s="20">
         <v>64.012</v>
       </c>
@@ -26497,7 +26497,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1">
+    <row r="67" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A67" s="20">
         <v>64.013000000000005</v>
       </c>

--- a/model_lca/KBOB_database.xlsx
+++ b/model_lca/KBOB_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3006,11 +3006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W371"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B166" sqref="B166"/>
+      <selection pane="bottomRight" activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -22543,8 +22543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/model_lca/KBOB_database.xlsx
+++ b/model_lca/KBOB_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3007,10 +3007,10 @@
   <dimension ref="A1:W371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O105" sqref="O105"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
